--- a/Digital-Map-Analysis/RFC8345 Augmentations.xlsx
+++ b/Digital-Map-Analysis/RFC8345 Augmentations.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="419">
-  <si>
-    <t>What modules are augmented</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="438">
+  <si>
+    <t>What modules are imported/augmented</t>
   </si>
   <si>
     <t>Extension Category</t>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Nigel Davis , Olga Havel , Benoît Claise</t>
-  </si>
-  <si>
-    <t>Nigel</t>
   </si>
   <si>
     <t>This draft examines the approach taken in RFC8345 to modeling the link.  The draft identifies why the current unidirectional approach is not sufficient and proposes backward compatible enhancements to allow appropriate support for multipoint and bidirectional cases.</t>
@@ -776,7 +773,8 @@
     <t xml:space="preserve">Bo Wu , Dhruv Dhody , Reza Rokui , Tarek Saad , John Mullooly </t>
   </si>
   <si>
-    <t>TOPOLOGY NETWORK SLICE SERVICE MGMT</t>
+    <t>TOPOLOGY 
+NETWORK SLICE SERVICE</t>
   </si>
   <si>
     <t>YANG module defines a service model for the RFC 9543 Network Slice Service</t>
@@ -794,6 +792,37 @@
   </si>
   <si>
     <t>The topology reference is optional. If there is requirement of custom topology constraints, a slice service can have a reference to topology (custom-topology-&gt;network-ref) and slice sdp has a reference to tp (tp-ref)</t>
+  </si>
+  <si>
+    <t>ietf-ns-topo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xufeng Liu , Jeff Tantsura , Igor Bryskin , Luis M. Contreras , Qin Wu , Sergio Belotti , Reza Rokui , Aihua Guo , Italo Busi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPOLOGY
+NETWORK SLICE
+</t>
+  </si>
+  <si>
+    <t>network-slice</t>
+  </si>
+  <si>
+    <t>YANG data model, based on [RFC7950], for configuring customer intent topologies.  The YANG model extends the existing data model from [RFC8345], allowing customers to express desired service-level objectives (SLOs) and service-level expectations (SLEs) across different elements within the customer intent topology</t>
+  </si>
+  <si>
+    <t>draft-liu-teas-transport-network-slice-yang</t>
+  </si>
+  <si>
+    <t>YES
+(adding network, 
+node, link 
+constraints to 
+network slice 
+services)</t>
+  </si>
+  <si>
+    <t>Augments network, node, tp, link with slo and sle policies</t>
   </si>
   <si>
     <t>ietf-network-inventory-topology</t>
@@ -979,6 +1008,155 @@
     <t>Uses ietf-sr-mpls-topology that is expired</t>
   </si>
   <si>
+    <t>ietf-te-types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italo Busi , Aihua Guo , Xufeng Liu , Tarek Saad , Igor Bryskin </t>
+  </si>
+  <si>
+    <t>This YANG module contains a collection of generally useful YANG data type definitions specific to TE</t>
+  </si>
+  <si>
+    <t>draft-ietf-teas-rfc8776-update</t>
+  </si>
+  <si>
+    <t>ietf-te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarek Saad , Rakesh Gandhi , Xufeng Liu , Vishnu Pavan Beeram , Igor Bryskin </t>
+  </si>
+  <si>
+    <t>TE
+PROVISIONING</t>
+  </si>
+  <si>
+    <t>A YANG data model for the provisioning and management of Traffic Engineering (TE) tunnels, Label Switched Paths (LSPs), and interfaces.</t>
+  </si>
+  <si>
+    <t>draft-ietf-teas-yang-te</t>
+  </si>
+  <si>
+    <t>YES
+(just via types 
+not leafref)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside of RFC8345, via same ids
+Tunnel, tunnel endpoint, tunnel hierrachies, 
+hierarchical link
+Link created by the tunnel provisioning, 
+link-id only read for hierarchical link. 
+Hierarchical link is the same topology </t>
+  </si>
+  <si>
+    <t>References (not via leafrefs but via types) to network, nodes, tps and link ids
+hierarchical link - has read only link-id - Identifies a hierarchical link 
+(in client layer) that this tunnel is associated with. 
+By default, the topology of the hierarchical link is the same 
+topology of the tunnel;</t>
+  </si>
+  <si>
+    <t>ietf-te-service-mapping-types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young Lee , Dhruv Dhody , Giuseppe Fioccola , Qin Wu , Daniele Ceccarelli , Jeff Tantsura </t>
+  </si>
+  <si>
+    <t>TE Service</t>
+  </si>
+  <si>
+    <t>A YANG module for TE &amp; Service mapping parameters and policies as a common grouping applicable to variuous service models (e.g., L1CSM, L2SM, L3SM, etc.)</t>
+  </si>
+  <si>
+    <t>draft-ietf-teas-te-service-mapping-yang</t>
+  </si>
+  <si>
+    <t>YES
+(just leafrefs 
+to nodes)</t>
+  </si>
+  <si>
+    <t>bbf-network-map</t>
+  </si>
+  <si>
+    <t>Wenle Yang, Jie Chen, Tim Carey</t>
+  </si>
+  <si>
+    <t>TOPOLOGY 
+MAP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>TR-454: YANG Modules for Access Network Map &amp; Equipment  Inventory &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://www.broadband-forum.org/technical/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>download/TR-454_Issue-1.pdf&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>bbf</t>
+  </si>
+  <si>
+    <t>TR-454</t>
+  </si>
+  <si>
+    <t>YES 
+deployment-topology:
+connected nodes 
+references instead of links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network, Node, TP augmented
+they also have deployment topology 
+per node with all the connected-node references 
+to external and internal map.  </t>
+  </si>
+  <si>
+    <t>Maybe the reason for not using links is they needed to have links  
+between different networks and RFC8345 did not support that</t>
+  </si>
+  <si>
+    <t>ietf-eth-service-oam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaode Yu , Haomian Zheng , Italo Busi , Zheng Yanlei , Victor Lopez , Oscar Gonzalez de Dios </t>
+  </si>
+  <si>
+    <t>This module defines the performance monitoring for Ethernet services OAM.</t>
+  </si>
+  <si>
+    <t>draft-zheng-ccamp-client-pm-yang</t>
+  </si>
+  <si>
+    <t>YES
+just leafrefs  to 
+nodes in rpcs, 
+no augmentation</t>
+  </si>
+  <si>
+    <t>MA, MA, MEG, MEP</t>
+  </si>
+  <si>
     <t>NOT DONE CATEGORIZATION FROM HERE BELOW
 MOVE ABOVE THIS LINE WHEN FINISH CATEGORIZATION</t>
   </si>
@@ -1027,18 +1205,6 @@
   </si>
   <si>
     <t>This module defines a collection of common YANG identity definitions for describing Costant Bit Rate (CBR) transport network clients</t>
-  </si>
-  <si>
-    <t>ietf-ns-topo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xufeng Liu , Jeff Tantsura , Igor Bryskin , Luis M. Contreras , Qin Wu , Sergio Belotti , Reza Rokui , Aihua Guo , Italo Busi </t>
-  </si>
-  <si>
-    <t>Olga todo</t>
-  </si>
-  <si>
-    <t>draft-liu-teas-transport-network-slice-yang</t>
   </si>
   <si>
     <t>ietf-actn-vn</t>
@@ -1177,31 +1343,15 @@
     <t>draft-ietf-ccamp-optical-impairment-topology-yang</t>
   </si>
   <si>
-    <t>ietf-te</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarek Saad , Rakesh Gandhi , Xufeng Liu , Vishnu Pavan Beeram , Igor Bryskin </t>
-  </si>
-  <si>
-    <t>draft-ietf-teas-yang-te</t>
-  </si>
-  <si>
-    <t>ietf-te-types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italo Busi , Aihua Guo , Xufeng Liu , Tarek Saad , Igor Bryskin </t>
-  </si>
-  <si>
-    <t>draft-ietf-teas-rfc8776-update</t>
-  </si>
-  <si>
     <t>ietf-te-topology-sf</t>
   </si>
   <si>
     <t xml:space="preserve">Igor Bryskin , Xufeng Liu , Young Lee , Jim Guichard , Luis M. Contreras , Daniele Ceccarelli , Jeff Tantsura , Dmytro Shytyi </t>
   </si>
   <si>
-    <t>SF</t>
+    <t>TOPOLOGY 
+TE 
+SF</t>
   </si>
   <si>
     <t>draft-ietf-teas-sf-aware-topo-model</t>
@@ -1210,24 +1360,6 @@
     <t>ietf-te-topology-sf-state</t>
   </si>
   <si>
-    <t>TE SF</t>
-  </si>
-  <si>
-    <t>ietf-te-service-mapping-types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young Lee , Dhruv Dhody , Giuseppe Fioccola , Qin Wu , Daniele Ceccarelli , Jeff Tantsura </t>
-  </si>
-  <si>
-    <t>TE Service</t>
-  </si>
-  <si>
-    <t>A YANG module for TE &amp; Service mapping parameters and policies as a common grouping applicable to variuous service models</t>
-  </si>
-  <si>
-    <t>draft-ietf-teas-te-service-mapping-yang</t>
-  </si>
-  <si>
     <t>ietf-otn-topology</t>
   </si>
   <si>
@@ -1252,18 +1384,6 @@
     <t>ietf-otn-slice-mpi</t>
   </si>
   <si>
-    <t>bbf-network-map</t>
-  </si>
-  <si>
-    <t>Wenle Yang, Jie Chen, Tim Carey</t>
-  </si>
-  <si>
-    <t>bbf</t>
-  </si>
-  <si>
-    <t>TR-454</t>
-  </si>
-  <si>
     <t>ietf-incident</t>
   </si>
   <si>
@@ -1298,9 +1418,6 @@
   </si>
   <si>
     <t>draft-hu-bier-oam-yang</t>
-  </si>
-  <si>
-    <t>ietf-eth-service-oam</t>
   </si>
   <si>
     <t>ietf-slice-policy</t>
@@ -1400,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1444,6 +1561,12 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1742,7 +1865,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1753,7 +1876,7 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1880,10 +2003,22 @@
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2124,7 +2259,7 @@
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="3" width="31.71"/>
     <col customWidth="1" min="4" max="4" width="21.71"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
+    <col customWidth="1" min="5" max="5" width="24.57"/>
     <col customWidth="1" min="6" max="6" width="12.29"/>
     <col customWidth="1" min="7" max="7" width="24.71"/>
     <col customWidth="1" min="8" max="8" width="44.29"/>
@@ -2534,7 +2669,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>31</v>
@@ -2544,7 +2679,7 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -2553,10 +2688,10 @@
         <v>34</v>
       </c>
       <c r="M9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="27" t="s">
@@ -2586,7 +2721,7 @@
       <c r="AB9" s="16"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="7.5" customHeight="1">
@@ -2622,25 +2757,25 @@
     </row>
     <row r="11" ht="146.25" customHeight="1">
       <c r="B11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -2649,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>36</v>
@@ -2683,28 +2818,28 @@
       <c r="AA11" s="21"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD11" s="24"/>
     </row>
     <row r="12">
       <c r="B12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>42</v>
@@ -2718,7 +2853,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>36</v>
@@ -2758,7 +2893,7 @@
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -2789,10 +2924,10 @@
     </row>
     <row r="14" ht="78.75" customHeight="1">
       <c r="B14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>30</v>
@@ -2801,13 +2936,13 @@
         <v>31</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2816,7 +2951,7 @@
         <v>34</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>36</v>
@@ -2841,23 +2976,23 @@
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD14" s="24"/>
     </row>
     <row r="15" ht="48.0" customHeight="1">
       <c r="B15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>30</v>
@@ -2866,10 +3001,10 @@
         <v>31</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>42</v>
@@ -2883,7 +3018,7 @@
         <v>34</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>36</v>
@@ -2946,10 +3081,10 @@
     </row>
     <row r="17">
       <c r="B17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>30</v>
@@ -2958,13 +3093,13 @@
         <v>31</v>
       </c>
       <c r="F17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -2973,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>36</v>
@@ -2998,23 +3133,23 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD17" s="24"/>
     </row>
     <row r="18">
       <c r="B18" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>30</v>
@@ -3023,10 +3158,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>42</v>
@@ -3040,7 +3175,7 @@
         <v>34</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>36</v>
@@ -3074,33 +3209,33 @@
     </row>
     <row r="19">
       <c r="B19" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M19" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>89</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="22" t="s">
@@ -3126,38 +3261,38 @@
       <c r="AB19" s="16"/>
       <c r="AC19" s="22"/>
       <c r="AD19" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="42"/>
       <c r="L20" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="22" t="s">
@@ -3183,38 +3318,38 @@
       <c r="AB20" s="16"/>
       <c r="AC20" s="22"/>
       <c r="AD20" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="42"/>
       <c r="L21" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" s="16"/>
       <c r="P21" s="22" t="s">
@@ -3239,41 +3374,41 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD21" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="42"/>
       <c r="L22" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="22" t="s">
@@ -3298,41 +3433,41 @@
       <c r="AA22" s="22"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD22" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" s="42"/>
       <c r="L23" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="22" t="s">
@@ -3358,15 +3493,15 @@
       <c r="AB23" s="16"/>
       <c r="AC23" s="22"/>
       <c r="AD23" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>30</v>
@@ -3375,13 +3510,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -3390,10 +3525,10 @@
         <v>34</v>
       </c>
       <c r="M24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="22" t="s">
@@ -3418,39 +3553,39 @@
       <c r="AA24" s="22"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="42"/>
       <c r="L25" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M25" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="22" t="s">
@@ -3476,38 +3611,38 @@
       <c r="AB25" s="16"/>
       <c r="AC25" s="22"/>
       <c r="AD25" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26" s="42"/>
       <c r="L26" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N26" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="22" t="s">
@@ -3536,10 +3671,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>30</v>
@@ -3548,27 +3683,27 @@
         <v>31</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="45" t="s">
         <v>112</v>
-      </c>
-      <c r="H27" s="45" t="s">
-        <v>113</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L27" s="46" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N27" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="22" t="s">
@@ -3593,7 +3728,7 @@
       <c r="AA27" s="22"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD27" s="24"/>
     </row>
@@ -3630,10 +3765,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>30</v>
@@ -3642,13 +3777,13 @@
         <v>31</v>
       </c>
       <c r="F29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -3657,7 +3792,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>36</v>
@@ -3691,10 +3826,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>30</v>
@@ -3703,13 +3838,13 @@
         <v>31</v>
       </c>
       <c r="F30" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="H30" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3718,7 +3853,7 @@
         <v>34</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>36</v>
@@ -3752,18 +3887,18 @@
       <c r="AA30" s="21"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD30" s="47" t="s">
         <v>127</v>
-      </c>
-      <c r="AD30" s="47" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>30</v>
@@ -3772,10 +3907,10 @@
         <v>31</v>
       </c>
       <c r="F31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>42</v>
@@ -3789,7 +3924,7 @@
         <v>34</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>36</v>
@@ -3825,37 +3960,37 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="42"/>
       <c r="J32" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="42"/>
       <c r="L32" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M32" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N32" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="22" t="s">
@@ -3882,35 +4017,35 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="42"/>
       <c r="J33" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33" s="42"/>
       <c r="L33" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N33" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="22" t="s">
@@ -3933,45 +4068,45 @@
       <c r="AA33" s="22"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD33" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="41" t="s">
         <v>43</v>
       </c>
       <c r="J34" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="42"/>
       <c r="L34" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M34" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="22" t="s">
@@ -3994,10 +4129,10 @@
       <c r="AA34" s="22"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD34" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" ht="7.5" customHeight="1">
@@ -4033,25 +4168,25 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="H36" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -4060,7 +4195,7 @@
         <v>34</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>36</v>
@@ -4089,38 +4224,38 @@
       <c r="AB36" s="16"/>
       <c r="AC36" s="22"/>
       <c r="AD36" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>146</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="51"/>
       <c r="H37" s="52"/>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L37" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M37" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N37" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O37" s="16"/>
       <c r="P37" s="22" t="s">
@@ -4175,25 +4310,25 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>151</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="G39" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="H39" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
@@ -4202,7 +4337,7 @@
         <v>34</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>36</v>
@@ -4225,40 +4360,40 @@
       <c r="V39" s="22"/>
       <c r="W39" s="22"/>
       <c r="X39" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y39" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="Y39" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="Z39" s="22"/>
       <c r="AA39" s="22"/>
       <c r="AB39" s="16"/>
       <c r="AC39" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="H40" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -4267,7 +4402,7 @@
         <v>34</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>36</v>
@@ -4301,31 +4436,31 @@
       <c r="AA40" s="22"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
@@ -4334,7 +4469,7 @@
         <v>34</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>36</v>
@@ -4364,16 +4499,16 @@
       <c r="AA41" s="22"/>
       <c r="AB41" s="16"/>
       <c r="AC41" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>30</v>
@@ -4381,10 +4516,10 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -4393,7 +4528,7 @@
         <v>34</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>36</v>
@@ -4422,7 +4557,7 @@
       <c r="AB42" s="16"/>
       <c r="AC42" s="22"/>
       <c r="AD42" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" ht="7.5" customHeight="1">
@@ -4458,10 +4593,10 @@
     </row>
     <row r="44" ht="225.0" customHeight="1">
       <c r="B44" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>30</v>
@@ -4470,13 +4605,13 @@
         <v>31</v>
       </c>
       <c r="F44" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="H44" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>182</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
@@ -4485,10 +4620,10 @@
         <v>34</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O44" s="16"/>
       <c r="P44" s="22" t="s">
@@ -4504,7 +4639,7 @@
       <c r="T44" s="22"/>
       <c r="U44" s="22"/>
       <c r="V44" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W44" s="22"/>
       <c r="X44" s="22" t="s">
@@ -4515,18 +4650,18 @@
       <c r="AA44" s="22"/>
       <c r="AB44" s="16"/>
       <c r="AC44" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD44" s="47" t="s">
         <v>185</v>
-      </c>
-      <c r="AD44" s="47" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>30</v>
@@ -4535,10 +4670,10 @@
         <v>31</v>
       </c>
       <c r="F45" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>181</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>42</v>
@@ -4552,10 +4687,10 @@
         <v>34</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O45" s="16"/>
       <c r="P45" s="22" t="s">
@@ -4571,7 +4706,7 @@
       <c r="T45" s="22"/>
       <c r="U45" s="22"/>
       <c r="V45" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W45" s="22"/>
       <c r="X45" s="22" t="s">
@@ -4586,25 +4721,25 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="H46" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>192</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="54"/>
@@ -4613,10 +4748,10 @@
         <v>34</v>
       </c>
       <c r="M46" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O46" s="16"/>
       <c r="P46" s="22" t="s">
@@ -4639,28 +4774,28 @@
       <c r="AA46" s="54"/>
       <c r="AB46" s="16"/>
       <c r="AC46" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD46" s="55"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="59" t="s">
         <v>190</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>191</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>42</v>
@@ -4674,10 +4809,10 @@
         <v>34</v>
       </c>
       <c r="M47" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O47" s="16"/>
       <c r="P47" s="22" t="s">
@@ -4703,25 +4838,25 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="H48" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
@@ -4730,10 +4865,10 @@
         <v>34</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N48" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O48" s="16"/>
       <c r="P48" s="22" t="s">
@@ -4762,25 +4897,25 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="H49" s="27" t="s">
         <v>204</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>205</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
@@ -4789,10 +4924,10 @@
         <v>34</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O49" s="16"/>
       <c r="P49" s="22" t="s">
@@ -4852,25 +4987,25 @@
     </row>
     <row r="51" ht="63.0" customHeight="1">
       <c r="B51" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>208</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="H51" s="21" t="s">
         <v>210</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>211</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
@@ -4879,10 +5014,10 @@
         <v>34</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N51" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O51" s="16"/>
       <c r="P51" s="22" t="s">
@@ -4900,7 +5035,7 @@
       </c>
       <c r="U51" s="22"/>
       <c r="V51" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W51" s="22"/>
       <c r="X51" s="22"/>
@@ -4911,7 +5046,7 @@
       <c r="AA51" s="22"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AD51" s="24"/>
     </row>
@@ -4948,25 +5083,25 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="G53" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>219</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
@@ -4975,10 +5110,10 @@
         <v>34</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N53" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O53" s="16"/>
       <c r="P53" s="22" t="s">
@@ -5009,31 +5144,31 @@
       <c r="AA53" s="22"/>
       <c r="AB53" s="16"/>
       <c r="AC53" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD53" s="31"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="57" t="s">
         <v>222</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>223</v>
       </c>
       <c r="D54" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="60" t="s">
         <v>224</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>225</v>
       </c>
       <c r="I54" s="54"/>
       <c r="J54" s="54"/>
@@ -5042,10 +5177,10 @@
         <v>34</v>
       </c>
       <c r="M54" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N54" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O54" s="16"/>
       <c r="P54" s="22" t="s">
@@ -5061,39 +5196,39 @@
       <c r="T54" s="54"/>
       <c r="U54" s="54"/>
       <c r="V54" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W54" s="54"/>
       <c r="Z54" s="54"/>
       <c r="AA54" s="54"/>
       <c r="AB54" s="16"/>
       <c r="AC54" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD54" s="65" t="s">
         <v>228</v>
-      </c>
-      <c r="AD54" s="65" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="D55" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55" s="20" t="s">
+      <c r="F55" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="27" t="s">
         <v>233</v>
       </c>
       <c r="I55" s="22"/>
@@ -5105,8 +5240,8 @@
       <c r="M55" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="N55" s="28" t="s">
-        <v>235</v>
+      <c r="N55" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="O55" s="16"/>
       <c r="P55" s="22" t="s">
@@ -5115,16 +5250,16 @@
       <c r="Q55" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R55" s="22" t="s">
+      <c r="R55" s="28" t="s">
         <v>38</v>
       </c>
       <c r="S55" s="16"/>
-      <c r="T55" s="22" t="s">
+      <c r="T55" s="28" t="s">
         <v>48</v>
       </c>
       <c r="U55" s="22"/>
-      <c r="V55" s="21" t="s">
-        <v>236</v>
+      <c r="V55" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
@@ -5132,32 +5267,32 @@
       <c r="Z55" s="22"/>
       <c r="AA55" s="22"/>
       <c r="AB55" s="16"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="66" t="s">
-        <v>237</v>
-      </c>
+      <c r="AC55" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
@@ -5166,10 +5301,10 @@
         <v>34</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="N56" s="22" t="s">
-        <v>57</v>
+        <v>241</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="22" t="s">
@@ -5186,8 +5321,8 @@
         <v>48</v>
       </c>
       <c r="U56" s="22"/>
-      <c r="V56" s="27" t="s">
-        <v>244</v>
+      <c r="V56" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="W56" s="22"/>
       <c r="X56" s="22"/>
@@ -5196,50 +5331,50 @@
       <c r="AA56" s="22"/>
       <c r="AB56" s="16"/>
       <c r="AC56" s="22"/>
-      <c r="AD56" s="31" t="s">
-        <v>245</v>
+      <c r="AD56" s="66" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+        <v>249</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="22" t="s">
         <v>34</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N57" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q57" s="22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R57" s="22" t="s">
         <v>38</v>
@@ -5249,8 +5384,8 @@
         <v>48</v>
       </c>
       <c r="U57" s="22"/>
-      <c r="V57" s="21" t="s">
-        <v>248</v>
+      <c r="V57" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="W57" s="22"/>
       <c r="X57" s="22"/>
@@ -5260,42 +5395,42 @@
       <c r="AB57" s="16"/>
       <c r="AC57" s="22"/>
       <c r="AD57" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D58" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="E58" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
       <c r="L58" s="22" t="s">
         <v>34</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N58" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="22" t="s">
@@ -5304,16 +5439,16 @@
       <c r="Q58" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="R58" s="61" t="s">
-        <v>48</v>
+      <c r="R58" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="S58" s="16"/>
-      <c r="T58" s="28" t="s">
+      <c r="T58" s="22" t="s">
         <v>48</v>
       </c>
       <c r="U58" s="22"/>
-      <c r="V58" s="28" t="s">
-        <v>188</v>
+      <c r="V58" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="W58" s="22"/>
       <c r="X58" s="22"/>
@@ -5323,40 +5458,42 @@
       <c r="AB58" s="16"/>
       <c r="AC58" s="22"/>
       <c r="AD58" s="31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="63" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="F59" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
+      <c r="K59" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="L59" s="22" t="s">
         <v>34</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N59" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O59" s="16"/>
       <c r="P59" s="22" t="s">
@@ -5365,15 +5502,17 @@
       <c r="Q59" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="R59" s="22" t="s">
-        <v>38</v>
+      <c r="R59" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="S59" s="16"/>
       <c r="T59" s="28" t="s">
         <v>48</v>
       </c>
       <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
+      <c r="V59" s="28" t="s">
+        <v>187</v>
+      </c>
       <c r="W59" s="22"/>
       <c r="X59" s="22"/>
       <c r="Y59" s="22"/>
@@ -5381,29 +5520,29 @@
       <c r="AA59" s="22"/>
       <c r="AB59" s="16"/>
       <c r="AC59" s="22"/>
-      <c r="AD59" s="24"/>
-    </row>
-    <row r="60" ht="75.0" customHeight="1">
+      <c r="AD59" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="H60" s="21" t="s">
+      <c r="E60" s="63" t="s">
         <v>264</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
@@ -5412,20 +5551,20 @@
         <v>34</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N60" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O60" s="16"/>
       <c r="P60" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R60" s="61" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="R60" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="S60" s="16"/>
       <c r="T60" s="28" t="s">
@@ -5442,25 +5581,27 @@
       <c r="AC60" s="22"/>
       <c r="AD60" s="24"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" ht="75.0" customHeight="1">
       <c r="B61" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="27" t="s">
+      <c r="E61" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="20" t="s">
         <v>269</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
@@ -5469,10 +5610,10 @@
         <v>34</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N61" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O61" s="16"/>
       <c r="P61" s="22" t="s">
@@ -5481,7 +5622,7 @@
       <c r="Q61" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R61" s="28" t="s">
+      <c r="R61" s="61" t="s">
         <v>48</v>
       </c>
       <c r="S61" s="16"/>
@@ -5489,47 +5630,35 @@
         <v>48</v>
       </c>
       <c r="U61" s="22"/>
-      <c r="V61" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="W61" s="28" t="s">
-        <v>271</v>
-      </c>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
       <c r="X61" s="22"/>
-      <c r="Y61" s="28" t="s">
-        <v>48</v>
-      </c>
+      <c r="Y61" s="22"/>
       <c r="Z61" s="22"/>
       <c r="AA61" s="22"/>
       <c r="AB61" s="16"/>
-      <c r="AC61" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD61" s="31" t="s">
-        <v>273</v>
-      </c>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="27" t="s">
         <v>276</v>
-      </c>
-      <c r="F62" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="G62" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>279</v>
       </c>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
@@ -5538,10 +5667,10 @@
         <v>34</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N62" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O62" s="16"/>
       <c r="P62" s="22" t="s">
@@ -5551,138 +5680,237 @@
         <v>48</v>
       </c>
       <c r="R62" s="28" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S62" s="16"/>
       <c r="T62" s="28" t="s">
         <v>48</v>
       </c>
       <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
+      <c r="V62" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="W62" s="28" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
+      <c r="Y62" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
       <c r="AB62" s="16"/>
       <c r="AC62" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD62" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="B63" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="AD62" s="31" t="s">
+      <c r="C63" s="19" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="22"/>
+      <c r="D63" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="O63" s="16"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="54"/>
+      <c r="P63" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q63" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R63" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="S63" s="16"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
+      <c r="T63" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
       <c r="AB63" s="16"/>
-      <c r="AD63" s="55"/>
+      <c r="AC63" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD63" s="31" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="22"/>
+      <c r="B64" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="O64" s="16"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="54"/>
+      <c r="P64" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R64" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="S64" s="16"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="AB64" s="16"/>
-      <c r="AD64" s="55"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="22"/>
+      <c r="B65" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="N65" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="O65" s="16"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="54"/>
+      <c r="P65" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R65" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="S65" s="16"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="AB65" s="16"/>
-      <c r="AD65" s="55"/>
+      <c r="AC65" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD65" s="31" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="68" t="s">
-        <v>284</v>
+      <c r="B66" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="63" t="s">
-        <v>287</v>
+        <v>30</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="27" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
@@ -5691,316 +5919,281 @@
         <v>34</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="N66" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O66" s="16"/>
       <c r="P66" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q66" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R66" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="R66" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="S66" s="16"/>
       <c r="T66" s="22"/>
       <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
+      <c r="V66" s="28" t="s">
+        <v>307</v>
+      </c>
       <c r="W66" s="22"/>
       <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
+      <c r="AA66" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="AB66" s="16"/>
       <c r="AC66" s="22"/>
       <c r="AD66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>285</v>
+      <c r="B67" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>309</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M67" s="22" t="s">
-        <v>289</v>
+        <v>30</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="58"/>
+      <c r="H67" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="M67" s="54" t="s">
+        <v>313</v>
       </c>
       <c r="N67" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O67" s="16"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="28"/>
+      <c r="P67" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q67" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R67" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="S67" s="16"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
+      <c r="T67" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="54"/>
+      <c r="AA67" s="54"/>
       <c r="AB67" s="16"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="31"/>
+      <c r="AC67" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD67" s="69" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>285</v>
+      <c r="B68" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>318</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="E68" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="58"/>
+      <c r="H68" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
       <c r="L68" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M68" s="22" t="s">
-        <v>289</v>
+      <c r="M68" s="68" t="s">
+        <v>320</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="O68" s="16"/>
-      <c r="P68" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q68" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R68" s="28" t="s">
-        <v>295</v>
+      <c r="P68" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q68" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R68" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="S68" s="16"/>
-      <c r="T68" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="W68" s="28"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="W68" s="54"/>
+      <c r="X68" s="54"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="54"/>
+      <c r="AA68" s="54"/>
       <c r="AB68" s="16"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="31"/>
+      <c r="AC68" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD68" s="55"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M69" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="N69" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="22"/>
       <c r="O69" s="16"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
-      <c r="R69" s="28"/>
+      <c r="R69" s="54"/>
       <c r="S69" s="16"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="54"/>
+      <c r="AA69" s="54"/>
       <c r="AB69" s="16"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="31"/>
+      <c r="AD69" s="55"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="B70" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="21"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22" t="s">
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="54"/>
+      <c r="AA70" s="54"/>
+      <c r="AB70" s="16"/>
+      <c r="AD70" s="55"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="54"/>
+      <c r="Y71" s="54"/>
+      <c r="Z71" s="54"/>
+      <c r="AA71" s="54"/>
+      <c r="AB71" s="16"/>
+      <c r="AD71" s="55"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="B72" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M70" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="N70" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="O70" s="16"/>
-      <c r="P70" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q70" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R70" s="22"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="22"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="24"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="39"/>
-      <c r="H71" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="M71" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="N71" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="O71" s="16"/>
-      <c r="P71" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q71" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R71" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S71" s="16"/>
-      <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
-      <c r="AA71" s="22"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="22"/>
-      <c r="AD71" s="24"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="M72" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="N72" s="42" t="s">
-        <v>89</v>
+      <c r="M72" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="22" t="s">
@@ -6009,9 +6202,7 @@
       <c r="Q72" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R72" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="R72" s="22"/>
       <c r="S72" s="16"/>
       <c r="T72" s="22"/>
       <c r="U72" s="22"/>
@@ -6026,189 +6217,189 @@
       <c r="AD72" s="24"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="L73" s="42" t="s">
+      <c r="B73" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M73" s="42" t="s">
-        <v>311</v>
+      <c r="M73" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="O73" s="16"/>
-      <c r="P73" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q73" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="28"/>
       <c r="S73" s="16"/>
-      <c r="T73" s="22"/>
+      <c r="T73" s="28"/>
       <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
       <c r="X73" s="22"/>
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
       <c r="AA73" s="22"/>
       <c r="AB73" s="16"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="24"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="31"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="G74" s="39"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42" t="s">
+      <c r="B74" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="H74" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M74" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="N74" s="42" t="s">
-        <v>89</v>
+      <c r="M74" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="O74" s="16"/>
-      <c r="P74" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q74" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R74" s="22"/>
+      <c r="P74" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q74" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>335</v>
+      </c>
       <c r="S74" s="16"/>
-      <c r="T74" s="22"/>
+      <c r="T74" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
+      <c r="V74" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W74" s="28"/>
       <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
+      <c r="Y74" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="Z74" s="22"/>
       <c r="AA74" s="22"/>
       <c r="AB74" s="16"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="24"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="31"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42" t="s">
+      <c r="B75" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M75" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="N75" s="42" t="s">
-        <v>89</v>
+      <c r="M75" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="N75" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="O75" s="16"/>
-      <c r="P75" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q75" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="28"/>
       <c r="S75" s="16"/>
-      <c r="T75" s="22"/>
+      <c r="T75" s="28"/>
       <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
       <c r="X75" s="22"/>
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
       <c r="AA75" s="22"/>
       <c r="AB75" s="16"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="24"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="31"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>319</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C76" s="39"/>
       <c r="D76" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>320</v>
+        <v>84</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>275</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="G76" s="39"/>
-      <c r="H76" s="41"/>
+      <c r="H76" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="I76" s="42"/>
       <c r="J76" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="K76" s="53" t="s">
-        <v>148</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K76" s="42"/>
       <c r="L76" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M76" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="N76" s="22" t="s">
-        <v>89</v>
+      <c r="M76" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="O76" s="16"/>
       <c r="P76" s="22" t="s">
@@ -6217,7 +6408,9 @@
       <c r="Q76" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="22"/>
+      <c r="R76" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="S76" s="16"/>
       <c r="T76" s="22"/>
       <c r="U76" s="22"/>
@@ -6233,36 +6426,34 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>319</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C77" s="39"/>
       <c r="D77" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>323</v>
+        <v>84</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>342</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="G77" s="39"/>
       <c r="H77" s="41"/>
-      <c r="I77" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J77" s="42"/>
-      <c r="K77" s="53" t="s">
-        <v>148</v>
-      </c>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K77" s="42"/>
       <c r="L77" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M77" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="N77" s="22"/>
+      <c r="M77" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="O77" s="16"/>
       <c r="P77" s="22" t="s">
         <v>48</v>
@@ -6270,7 +6461,9 @@
       <c r="Q77" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R77" s="22"/>
+      <c r="R77" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="S77" s="16"/>
       <c r="T77" s="22"/>
       <c r="U77" s="22"/>
@@ -6286,33 +6479,31 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="C78" s="39"/>
+        <v>345</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>346</v>
+      </c>
       <c r="D78" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="G78" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="41"/>
       <c r="I78" s="42"/>
-      <c r="J78" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="L78" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M78" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="N78" s="42" t="s">
-        <v>89</v>
+        <v>347</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="O78" s="16"/>
       <c r="P78" s="22" t="s">
@@ -6337,38 +6528,40 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>328</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C79" s="39"/>
       <c r="D79" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G79" s="39"/>
       <c r="H79" s="41"/>
       <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="53" t="s">
-        <v>148</v>
-      </c>
+      <c r="J79" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K79" s="42"/>
       <c r="L79" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M79" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="N79" s="22" t="s">
-        <v>57</v>
+        <v>351</v>
+      </c>
+      <c r="N79" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q79" s="22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R79" s="22"/>
       <c r="S79" s="16"/>
@@ -6386,37 +6579,33 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>319</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C80" s="39"/>
       <c r="D80" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="40"/>
-      <c r="H80" s="69" t="s">
-        <v>331</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="G80" s="39"/>
+      <c r="H80" s="41"/>
       <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="53" t="s">
-        <v>148</v>
-      </c>
+      <c r="J80" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" s="42"/>
       <c r="L80" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M80" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="N80" s="22" t="s">
-        <v>57</v>
+      <c r="M80" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="N80" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="22" t="s">
@@ -6441,36 +6630,38 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="38" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81" s="40"/>
+        <v>356</v>
+      </c>
+      <c r="G81" s="39"/>
       <c r="H81" s="41"/>
-      <c r="I81" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="K81" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L81" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M81" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="N81" s="22"/>
+        <v>357</v>
+      </c>
+      <c r="N81" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="O81" s="16"/>
       <c r="P81" s="22" t="s">
         <v>48</v>
@@ -6494,32 +6685,36 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="38" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="39"/>
       <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
+      <c r="I82" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="J82" s="42"/>
       <c r="K82" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L82" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M82" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="N82" s="22" t="s">
-        <v>57</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N82" s="22"/>
       <c r="O82" s="16"/>
       <c r="P82" s="22" t="s">
         <v>48</v>
@@ -6543,40 +6738,40 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="38" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C83" s="39"/>
       <c r="D83" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>338</v>
+        <v>84</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="F83" s="40" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="G83" s="40"/>
       <c r="H83" s="41"/>
       <c r="I83" s="42"/>
       <c r="J83" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K83" s="42"/>
       <c r="L83" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M83" s="41" t="s">
-        <v>339</v>
+      <c r="M83" s="42" t="s">
+        <v>362</v>
       </c>
       <c r="N83" s="42" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q83" s="22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R83" s="22"/>
       <c r="S83" s="16"/>
@@ -6593,80 +6788,87 @@
       <c r="AD83" s="24"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" s="50" t="s">
-        <v>341</v>
+      <c r="B84" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>364</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
+        <v>84</v>
+      </c>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
       <c r="K84" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L84" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M84" s="53" t="s">
-        <v>342</v>
+      <c r="M84" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="N84" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O84" s="16"/>
       <c r="P84" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q84" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R84" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="R84" s="22"/>
       <c r="S84" s="16"/>
-      <c r="T84" s="54"/>
-      <c r="U84" s="54"/>
-      <c r="V84" s="54"/>
-      <c r="W84" s="54"/>
-      <c r="X84" s="54"/>
-      <c r="Y84" s="54"/>
-      <c r="Z84" s="54"/>
-      <c r="AA84" s="54"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
       <c r="AB84" s="16"/>
-      <c r="AD84" s="55"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="24"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="C85" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="L85" s="22" t="s">
+      <c r="B85" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G85" s="40"/>
+      <c r="H85" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L85" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M85" s="54" t="s">
-        <v>345</v>
+      <c r="M85" s="42" t="s">
+        <v>357</v>
       </c>
       <c r="N85" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O85" s="16"/>
       <c r="P85" s="22" t="s">
@@ -6675,47 +6877,52 @@
       <c r="Q85" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R85" s="54"/>
+      <c r="R85" s="22"/>
       <c r="S85" s="16"/>
-      <c r="T85" s="54"/>
-      <c r="U85" s="54"/>
-      <c r="V85" s="54"/>
-      <c r="W85" s="54"/>
-      <c r="X85" s="54"/>
-      <c r="Y85" s="54"/>
-      <c r="Z85" s="54"/>
-      <c r="AA85" s="54"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="X85" s="22"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22"/>
       <c r="AB85" s="16"/>
-      <c r="AD85" s="55"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="24"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" s="20" t="s">
+      <c r="B86" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G86" s="40"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" s="42"/>
+      <c r="K86" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22" t="s">
+      <c r="L86" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M86" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="N86" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="M86" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="N86" s="22"/>
       <c r="O86" s="16"/>
       <c r="P86" s="22" t="s">
         <v>48</v>
@@ -6738,34 +6945,32 @@
       <c r="AD86" s="24"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E87" s="20" t="s">
+      <c r="B87" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F87" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22" t="s">
+      <c r="L87" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M87" s="22" t="s">
-        <v>351</v>
+      <c r="M87" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="N87" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O87" s="16"/>
       <c r="P87" s="22" t="s">
@@ -6789,85 +6994,84 @@
       <c r="AD87" s="24"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E88" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="G88" s="58"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="22" t="s">
+      <c r="B88" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="40"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M88" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="N88" s="22" t="s">
-        <v>57</v>
+      <c r="M88" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="N88" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q88" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R88" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="R88" s="22"/>
       <c r="S88" s="16"/>
-      <c r="T88" s="54"/>
-      <c r="U88" s="54"/>
-      <c r="V88" s="54"/>
-      <c r="W88" s="54"/>
-      <c r="X88" s="54"/>
-      <c r="Y88" s="54"/>
-      <c r="Z88" s="54"/>
-      <c r="AA88" s="54"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="22"/>
       <c r="AB88" s="16"/>
-      <c r="AD88" s="55"/>
+      <c r="AC88" s="22"/>
+      <c r="AD88" s="24"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="C89" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E89" s="58" t="s">
+      <c r="B89" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F89" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="G89" s="58"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="22" t="s">
+      <c r="L89" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M89" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="N89" s="22"/>
+      <c r="M89" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="N89" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="O89" s="16"/>
       <c r="P89" s="22" t="s">
         <v>48</v>
@@ -6875,9 +7079,7 @@
       <c r="Q89" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R89" s="61" t="s">
-        <v>48</v>
-      </c>
+      <c r="R89" s="54"/>
       <c r="S89" s="16"/>
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
@@ -6891,87 +7093,84 @@
       <c r="AD89" s="55"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>359</v>
+      <c r="B90" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>380</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54" t="s">
+        <v>66</v>
+      </c>
       <c r="L90" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M90" s="22" t="s">
-        <v>362</v>
+      <c r="M90" s="54" t="s">
+        <v>381</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O90" s="16"/>
       <c r="P90" s="22" t="s">
         <v>48</v>
       </c>
       <c r="Q90" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="R90" s="54"/>
       <c r="S90" s="16"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
-      <c r="AA90" s="22"/>
+      <c r="T90" s="54"/>
+      <c r="U90" s="54"/>
+      <c r="V90" s="54"/>
+      <c r="W90" s="54"/>
+      <c r="X90" s="54"/>
+      <c r="Y90" s="54"/>
+      <c r="Z90" s="54"/>
+      <c r="AA90" s="54"/>
       <c r="AB90" s="16"/>
-      <c r="AC90" s="22"/>
-      <c r="AD90" s="24"/>
+      <c r="AD90" s="55"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E91" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="F91" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="G91" s="58"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="22" t="s">
+      <c r="B91" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="51"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L91" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M91" s="54" t="s">
-        <v>365</v>
+      <c r="M91" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="22" t="s">
@@ -6980,7 +7179,9 @@
       <c r="Q91" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R91" s="54"/>
+      <c r="R91" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="S91" s="16"/>
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
@@ -6994,35 +7195,37 @@
       <c r="AD91" s="55"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E92" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="F92" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="G92" s="58"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="22" t="s">
+      <c r="B92" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="51"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L92" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="N92" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="M92" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="N92" s="22"/>
       <c r="O92" s="16"/>
       <c r="P92" s="22" t="s">
         <v>48</v>
@@ -7030,7 +7233,9 @@
       <c r="Q92" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R92" s="54"/>
+      <c r="R92" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="S92" s="16"/>
       <c r="T92" s="54"/>
       <c r="U92" s="54"/>
@@ -7045,19 +7250,19 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="56" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="F93" s="58" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="G93" s="58"/>
       <c r="H93" s="60"/>
@@ -7068,10 +7273,10 @@
         <v>34</v>
       </c>
       <c r="M93" s="54" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="N93" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="22" t="s">
@@ -7095,29 +7300,33 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="56" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
+        <v>326</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" s="58" t="s">
+        <v>392</v>
+      </c>
       <c r="G94" s="58"/>
       <c r="H94" s="60"/>
       <c r="I94" s="54"/>
       <c r="J94" s="54"/>
       <c r="K94" s="54"/>
-      <c r="L94" s="54" t="s">
-        <v>373</v>
+      <c r="L94" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="M94" s="54" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="N94" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O94" s="16"/>
       <c r="P94" s="22" t="s">
@@ -7139,114 +7348,115 @@
       <c r="AB94" s="16"/>
       <c r="AD94" s="55"/>
     </row>
-    <row r="95" ht="7.5" customHeight="1">
-      <c r="B95" s="32"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="B95" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E95" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F95" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G95" s="58"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="O95" s="16"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
+      <c r="P95" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q95" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R95" s="54"/>
       <c r="S95" s="16"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="36"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
+      <c r="V95" s="54"/>
+      <c r="W95" s="54"/>
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
+      <c r="Z95" s="54"/>
+      <c r="AA95" s="54"/>
       <c r="AB95" s="16"/>
-      <c r="AC95" s="36"/>
-      <c r="AD95" s="37"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="N96" s="42" t="s">
-        <v>378</v>
-      </c>
+      <c r="AD95" s="55"/>
+    </row>
+    <row r="96" ht="7.5" customHeight="1">
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
       <c r="O96" s="16"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
       <c r="S96" s="16"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="22"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="36"/>
       <c r="AB96" s="16"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="24"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="37"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="18" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="21"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
       <c r="M97" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="N97" s="22" t="s">
-        <v>104</v>
+        <v>397</v>
+      </c>
+      <c r="N97" s="42" t="s">
+        <v>398</v>
       </c>
       <c r="O97" s="16"/>
-      <c r="P97" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q97" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R97" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
       <c r="S97" s="16"/>
       <c r="T97" s="22"/>
       <c r="U97" s="22"/>
@@ -7262,20 +7472,16 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="18" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F98" s="20" t="s">
-        <v>382</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="21"/>
       <c r="I98" s="22"/>
@@ -7285,15 +7491,21 @@
         <v>34</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="N98" s="42" t="s">
-        <v>378</v>
+        <v>397</v>
+      </c>
+      <c r="N98" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="O98" s="16"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
+      <c r="P98" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q98" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R98" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="S98" s="16"/>
       <c r="T98" s="22"/>
       <c r="U98" s="22"/>
@@ -7308,44 +7520,38 @@
       <c r="AD98" s="24"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="C99" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="D99" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G99" s="40"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="L99" s="42" t="s">
+      <c r="B99" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="G99" s="20"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M99" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="N99" s="22" t="s">
-        <v>104</v>
+      <c r="M99" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="N99" s="42" t="s">
+        <v>398</v>
       </c>
       <c r="O99" s="16"/>
-      <c r="P99" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q99" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="16"/>
       <c r="T99" s="22"/>
@@ -7361,30 +7567,36 @@
       <c r="AD99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="56" t="s">
-        <v>387</v>
-      </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E100" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="F100" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G100" s="58"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="22" t="s">
+      <c r="B100" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" s="40"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L100" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M100" s="54"/>
-      <c r="N100" s="42" t="s">
-        <v>378</v>
+      <c r="M100" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="O100" s="16"/>
       <c r="P100" s="22" t="s">
@@ -7393,28 +7605,29 @@
       <c r="Q100" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="R100" s="54"/>
+      <c r="R100" s="22"/>
       <c r="S100" s="16"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="54"/>
-      <c r="V100" s="54"/>
-      <c r="W100" s="54"/>
-      <c r="X100" s="54"/>
-      <c r="Y100" s="54"/>
-      <c r="Z100" s="54"/>
-      <c r="AA100" s="54"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
       <c r="AB100" s="16"/>
-      <c r="AD100" s="55"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="24"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="38" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="D101" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E101" s="40"/>
       <c r="F101" s="40"/>
@@ -7423,16 +7636,16 @@
       <c r="I101" s="42"/>
       <c r="J101" s="42"/>
       <c r="K101" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L101" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M101" s="42" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="N101" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O101" s="16"/>
       <c r="P101" s="22" t="s">
@@ -7456,30 +7669,32 @@
       <c r="AD101" s="24"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="22" t="s">
+      <c r="B102" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L102" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M102" s="22" t="s">
-        <v>302</v>
+      <c r="M102" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="N102" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O102" s="16"/>
       <c r="P102" s="22" t="s">
@@ -7488,7 +7703,9 @@
       <c r="Q102" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="R102" s="22"/>
+      <c r="R102" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="S102" s="16"/>
       <c r="T102" s="22"/>
       <c r="U102" s="22"/>
@@ -7504,37 +7721,37 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="38" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="F103" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G103" s="40"/>
       <c r="H103" s="41" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="42"/>
       <c r="K103" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L103" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M103" s="42" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="N103" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O103" s="16"/>
       <c r="P103" s="22" t="s">
@@ -7561,33 +7778,33 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="38" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C104" s="39"/>
       <c r="D104" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="F104" s="40" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="G104" s="40"/>
       <c r="H104" s="41"/>
       <c r="I104" s="42"/>
       <c r="J104" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K104" s="42"/>
       <c r="L104" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M104" s="42" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="N104" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O104" s="16"/>
       <c r="P104" s="22" t="s">
@@ -7614,13 +7831,13 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="38" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E105" s="40"/>
       <c r="F105" s="40"/>
@@ -7629,14 +7846,14 @@
       <c r="I105" s="42"/>
       <c r="J105" s="42"/>
       <c r="K105" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L105" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M105" s="42"/>
       <c r="N105" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O105" s="16"/>
       <c r="P105" s="22" t="s">
@@ -7663,13 +7880,13 @@
     </row>
     <row r="106" ht="42.0" customHeight="1">
       <c r="B106" s="38" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E106" s="40"/>
       <c r="F106" s="40"/>
@@ -7678,14 +7895,14 @@
       <c r="I106" s="42"/>
       <c r="J106" s="42"/>
       <c r="K106" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L106" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M106" s="42"/>
       <c r="N106" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O106" s="16"/>
       <c r="P106" s="22" t="s">
@@ -7712,23 +7929,23 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="B107" s="38" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="G107" s="40"/>
       <c r="H107" s="41"/>
       <c r="I107" s="42"/>
       <c r="J107" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K107" s="42"/>
       <c r="L107" s="42" t="s">
@@ -7736,7 +7953,7 @@
       </c>
       <c r="M107" s="42"/>
       <c r="N107" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O107" s="16"/>
       <c r="P107" s="22" t="s">
@@ -7763,11 +7980,11 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="38" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C108" s="39"/>
       <c r="D108" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E108" s="40"/>
       <c r="F108" s="40"/>
@@ -7775,7 +7992,7 @@
       <c r="H108" s="41"/>
       <c r="I108" s="42"/>
       <c r="J108" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K108" s="42"/>
       <c r="L108" s="42" t="s">
@@ -7783,7 +8000,7 @@
       </c>
       <c r="M108" s="42"/>
       <c r="N108" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="22" t="s">
@@ -7808,11 +8025,11 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="B109" s="38" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C109" s="39"/>
       <c r="D109" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E109" s="40"/>
       <c r="F109" s="40"/>
@@ -7821,14 +8038,14 @@
       <c r="I109" s="42"/>
       <c r="J109" s="42"/>
       <c r="K109" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L109" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M109" s="42"/>
       <c r="N109" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O109" s="16"/>
       <c r="P109" s="22" t="s">
@@ -7853,31 +8070,31 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="B110" s="38" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C110" s="39"/>
       <c r="D110" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F110" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G110" s="40"/>
       <c r="H110" s="41"/>
       <c r="I110" s="42"/>
       <c r="J110" s="42"/>
       <c r="K110" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L110" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M110" s="42"/>
       <c r="N110" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O110" s="16"/>
       <c r="P110" s="22" t="s">
@@ -7902,11 +8119,11 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="B111" s="38" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C111" s="39"/>
       <c r="D111" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E111" s="40"/>
       <c r="F111" s="40"/>
@@ -7915,14 +8132,14 @@
       <c r="I111" s="42"/>
       <c r="J111" s="42"/>
       <c r="K111" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L111" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M111" s="42"/>
       <c r="N111" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O111" s="16"/>
       <c r="P111" s="22" t="s">
@@ -7947,31 +8164,31 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="38" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C112" s="39"/>
       <c r="D112" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E112" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F112" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G112" s="40"/>
       <c r="H112" s="41"/>
       <c r="I112" s="42"/>
       <c r="J112" s="42"/>
       <c r="K112" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L112" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M112" s="42"/>
       <c r="N112" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O112" s="16"/>
       <c r="P112" s="22" t="s">
@@ -7996,31 +8213,31 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="B113" s="38" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C113" s="39"/>
       <c r="D113" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
       <c r="H113" s="41"/>
       <c r="I113" s="42"/>
       <c r="J113" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K113" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L113" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M113" s="42"/>
       <c r="N113" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O113" s="16"/>
       <c r="P113" s="22" t="s">
@@ -8045,11 +8262,11 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="38" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E114" s="40"/>
       <c r="F114" s="40"/>
@@ -8057,7 +8274,7 @@
       <c r="H114" s="41"/>
       <c r="I114" s="42"/>
       <c r="J114" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K114" s="42"/>
       <c r="L114" s="42" t="s">
@@ -8065,7 +8282,7 @@
       </c>
       <c r="M114" s="42"/>
       <c r="N114" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O114" s="16"/>
       <c r="P114" s="22" t="s">
@@ -8092,11 +8309,11 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="38" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E115" s="40"/>
       <c r="F115" s="40"/>
@@ -8104,7 +8321,7 @@
       <c r="H115" s="41"/>
       <c r="I115" s="42"/>
       <c r="J115" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K115" s="42"/>
       <c r="L115" s="42" t="s">
@@ -8112,7 +8329,7 @@
       </c>
       <c r="M115" s="42"/>
       <c r="N115" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O115" s="16"/>
       <c r="P115" s="22" t="s">
@@ -8139,11 +8356,11 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="B116" s="49" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C116" s="50"/>
       <c r="D116" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E116" s="51"/>
       <c r="F116" s="51"/>
@@ -8151,7 +8368,7 @@
       <c r="H116" s="52"/>
       <c r="I116" s="53"/>
       <c r="J116" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K116" s="53"/>
       <c r="L116" s="42" t="s">
@@ -8159,7 +8376,7 @@
       </c>
       <c r="M116" s="42"/>
       <c r="N116" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O116" s="16"/>
       <c r="P116" s="22" t="s">
@@ -8183,23 +8400,23 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="49" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C117" s="50"/>
       <c r="D117" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E117" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F117" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G117" s="51"/>
       <c r="H117" s="52"/>
       <c r="I117" s="53"/>
       <c r="J117" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K117" s="53"/>
       <c r="L117" s="42" t="s">
@@ -8207,7 +8424,7 @@
       </c>
       <c r="M117" s="42"/>
       <c r="N117" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O117" s="16"/>
       <c r="P117" s="22" t="s">
@@ -8231,23 +8448,23 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="B118" s="38" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C118" s="39"/>
       <c r="D118" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F118" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G118" s="40"/>
       <c r="H118" s="41"/>
       <c r="I118" s="42"/>
       <c r="J118" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K118" s="42"/>
       <c r="L118" s="42" t="s">
@@ -8255,7 +8472,7 @@
       </c>
       <c r="M118" s="42"/>
       <c r="N118" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O118" s="16"/>
       <c r="P118" s="22" t="s">
@@ -8280,11 +8497,11 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="B119" s="38" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C119" s="39"/>
       <c r="D119" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E119" s="40"/>
       <c r="F119" s="40"/>
@@ -8292,7 +8509,7 @@
       <c r="H119" s="41"/>
       <c r="I119" s="42"/>
       <c r="J119" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K119" s="42"/>
       <c r="L119" s="42" t="s">
@@ -8300,7 +8517,7 @@
       </c>
       <c r="M119" s="42"/>
       <c r="N119" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O119" s="16"/>
       <c r="P119" s="22" t="s">
@@ -8325,11 +8542,11 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="B120" s="38" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C120" s="39"/>
       <c r="D120" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E120" s="40"/>
       <c r="F120" s="40"/>
@@ -8337,7 +8554,7 @@
       <c r="H120" s="41"/>
       <c r="I120" s="42"/>
       <c r="J120" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K120" s="42"/>
       <c r="L120" s="42" t="s">
@@ -8345,7 +8562,7 @@
       </c>
       <c r="M120" s="42"/>
       <c r="N120" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O120" s="16"/>
       <c r="P120" s="22" t="s">
@@ -8370,11 +8587,11 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="49" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C121" s="50"/>
       <c r="D121" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E121" s="51"/>
       <c r="F121" s="51"/>
@@ -8383,14 +8600,14 @@
       <c r="I121" s="53"/>
       <c r="J121" s="53"/>
       <c r="K121" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L121" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M121" s="42"/>
       <c r="N121" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O121" s="16"/>
       <c r="P121" s="22" t="s">
@@ -8414,11 +8631,11 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="49" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C122" s="50"/>
       <c r="D122" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E122" s="51"/>
       <c r="F122" s="51"/>
@@ -8427,14 +8644,14 @@
       <c r="I122" s="53"/>
       <c r="J122" s="53"/>
       <c r="K122" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L122" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M122" s="42"/>
       <c r="N122" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O122" s="16"/>
       <c r="P122" s="22" t="s">
@@ -8489,7 +8706,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -12906,9 +13123,12 @@
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H67"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Digital-Map-Analysis/RFC8345 Augmentations.xlsx
+++ b/Digital-Map-Analysis/RFC8345 Augmentations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="464">
   <si>
     <t>What modules are imported/augmented</t>
   </si>
@@ -921,11 +921,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gen Chen , Qin Wu , Mohamed Boucadair , Oscar Gonzalez de Dios , Carlos Pignataro </t>
-  </si>
-  <si>
-    <t>TOPOLOGY 
-INVENTORY
-ENERGY</t>
   </si>
   <si>
     <t>A YANG Data Model for Energy Saving Management</t>
@@ -1218,10 +1213,6 @@
     <t xml:space="preserve">Dieter Beller , Esther Le Rouzic , Sergio Belotti , Gabriele Galimberti , Italo Busi </t>
   </si>
   <si>
-    <t xml:space="preserve">TOPOLOGY 
-TE </t>
-  </si>
-  <si>
     <t>OPTICAL</t>
   </si>
   <si>
@@ -1624,12 +1615,26 @@
   <si>
     <t>ietf-network-vpn-svc-pm</t>
   </si>
+  <si>
+    <t xml:space="preserve">TOPOLOGY 
+NETWORK SLICE
+</t>
+  </si>
+  <si>
+    <t>TOPOLOGY 
+INVENTORY 
+ENERGY</t>
+  </si>
+  <si>
+    <t>TOPOLOGY 
+TE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,6 +1706,12 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2044,7 +2055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2176,6 +2187,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2410,14 +2433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:AE1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2425,7 +2447,7 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="71" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="44.33203125" customWidth="1"/>
@@ -2461,21 +2483,21 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="H2" s="2"/>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="T2" s="74" t="s">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="76"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="80"/>
     </row>
     <row r="3" spans="2:31" ht="72">
       <c r="B3" s="3" t="s">
@@ -2561,7 +2583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="6" hidden="1" customHeight="1">
+    <row r="4" spans="2:31" ht="6" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2593,7 +2615,7 @@
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" spans="2:31" ht="112.5" hidden="1" customHeight="1">
+    <row r="5" spans="2:31" ht="112.5" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
@@ -2603,7 +2625,7 @@
       <c r="D5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -2651,7 +2673,7 @@
       </c>
       <c r="AE5" s="18"/>
     </row>
-    <row r="6" spans="2:31" ht="52.5" hidden="1" customHeight="1">
+    <row r="6" spans="2:31" ht="52.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
@@ -2711,7 +2733,7 @@
       </c>
       <c r="AE6" s="18"/>
     </row>
-    <row r="7" spans="2:31" ht="101.25" hidden="1" customHeight="1">
+    <row r="7" spans="2:31" ht="101.25" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -2721,7 +2743,7 @@
       <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -2769,7 +2791,7 @@
       </c>
       <c r="AE7" s="18"/>
     </row>
-    <row r="8" spans="2:31" ht="69.75" hidden="1" customHeight="1">
+    <row r="8" spans="2:31" ht="69.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
@@ -2829,7 +2851,7 @@
       </c>
       <c r="AE8" s="18"/>
     </row>
-    <row r="9" spans="2:31" ht="69.75" hidden="1" customHeight="1">
+    <row r="9" spans="2:31" ht="69.75" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>51</v>
       </c>
@@ -2839,7 +2861,7 @@
       <c r="D9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2893,7 +2915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="10" spans="2:31" ht="7.5" customHeight="1">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2925,7 +2947,7 @@
       <c r="AD10" s="30"/>
       <c r="AE10" s="32"/>
     </row>
-    <row r="11" spans="2:31" ht="146.25" hidden="1" customHeight="1">
+    <row r="11" spans="2:31" ht="146.25" customHeight="1">
       <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
@@ -2935,7 +2957,7 @@
       <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -2993,7 +3015,7 @@
       </c>
       <c r="AE11" s="18"/>
     </row>
-    <row r="12" spans="2:31" ht="57.6" hidden="1">
+    <row r="12" spans="2:31" ht="57.6">
       <c r="B12" s="12" t="s">
         <v>64</v>
       </c>
@@ -3061,7 +3083,7 @@
       <c r="AD12" s="15"/>
       <c r="AE12" s="18"/>
     </row>
-    <row r="13" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="13" spans="2:31" ht="7.5" customHeight="1">
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
@@ -3095,7 +3117,7 @@
       <c r="AD13" s="30"/>
       <c r="AE13" s="32"/>
     </row>
-    <row r="14" spans="2:31" ht="78.75" hidden="1" customHeight="1">
+    <row r="14" spans="2:31" ht="78.75" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>66</v>
       </c>
@@ -3105,7 +3127,7 @@
       <c r="D14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -3161,7 +3183,7 @@
       </c>
       <c r="AE14" s="18"/>
     </row>
-    <row r="15" spans="2:31" ht="48" hidden="1" customHeight="1">
+    <row r="15" spans="2:31" ht="48" customHeight="1">
       <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
@@ -3223,7 +3245,7 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="18"/>
     </row>
-    <row r="16" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="16" spans="2:31" ht="7.5" customHeight="1">
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3255,7 +3277,7 @@
       <c r="AD16" s="30"/>
       <c r="AE16" s="32"/>
     </row>
-    <row r="17" spans="2:31" ht="72" hidden="1">
+    <row r="17" spans="2:31" ht="72">
       <c r="B17" s="12" t="s">
         <v>74</v>
       </c>
@@ -3265,7 +3287,7 @@
       <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3321,7 +3343,7 @@
       </c>
       <c r="AE17" s="18"/>
     </row>
-    <row r="18" spans="2:31" ht="43.2" hidden="1">
+    <row r="18" spans="2:31" ht="43.2">
       <c r="B18" s="12" t="s">
         <v>81</v>
       </c>
@@ -3385,7 +3407,7 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="18"/>
     </row>
-    <row r="19" spans="2:31" ht="28.8" hidden="1">
+    <row r="19" spans="2:31" ht="28.8">
       <c r="B19" s="33" t="s">
         <v>82</v>
       </c>
@@ -3443,7 +3465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="28.8" hidden="1">
+    <row r="20" spans="2:31" ht="28.8">
       <c r="B20" s="33" t="s">
         <v>89</v>
       </c>
@@ -3501,7 +3523,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="14.4" hidden="1">
+    <row r="21" spans="2:31" ht="14.4">
       <c r="B21" s="33" t="s">
         <v>91</v>
       </c>
@@ -3561,7 +3583,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="2:31" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>95</v>
       </c>
@@ -3621,7 +3643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="2:31" ht="15.75" customHeight="1">
       <c r="B23" s="33" t="s">
         <v>96</v>
       </c>
@@ -3679,7 +3701,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:31" ht="15.75" customHeight="1">
       <c r="B24" s="12" t="s">
         <v>98</v>
       </c>
@@ -3689,7 +3711,7 @@
       <c r="D24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -3741,7 +3763,7 @@
       </c>
       <c r="AE24" s="18"/>
     </row>
-    <row r="25" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:31" ht="15.75" customHeight="1">
       <c r="B25" s="33" t="s">
         <v>104</v>
       </c>
@@ -3799,7 +3821,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="2:31" ht="15.75" customHeight="1">
       <c r="B26" s="33" t="s">
         <v>106</v>
       </c>
@@ -3855,7 +3877,7 @@
       <c r="AD26" s="16"/>
       <c r="AE26" s="18"/>
     </row>
-    <row r="27" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="2:31" ht="15.75" customHeight="1">
       <c r="B27" s="16" t="s">
         <v>108</v>
       </c>
@@ -3919,7 +3941,7 @@
       </c>
       <c r="AE27" s="18"/>
     </row>
-    <row r="28" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="28" spans="2:31" ht="7.5" customHeight="1">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -3951,7 +3973,7 @@
       <c r="AD28" s="30"/>
       <c r="AE28" s="32"/>
     </row>
-    <row r="29" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="2:31" ht="15.75" customHeight="1">
       <c r="B29" s="12" t="s">
         <v>115</v>
       </c>
@@ -3961,7 +3983,7 @@
       <c r="D29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -4013,7 +4035,7 @@
       <c r="AD29" s="16"/>
       <c r="AE29" s="18"/>
     </row>
-    <row r="30" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="2:31" ht="15.75" customHeight="1">
       <c r="B30" s="12" t="s">
         <v>121</v>
       </c>
@@ -4023,7 +4045,7 @@
       <c r="D30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -4083,7 +4105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="2:31" ht="15.75" customHeight="1">
       <c r="B31" s="12" t="s">
         <v>127</v>
       </c>
@@ -4149,7 +4171,7 @@
       <c r="AD31" s="15"/>
       <c r="AE31" s="42"/>
     </row>
-    <row r="32" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="2:31" ht="15.75" customHeight="1">
       <c r="B32" s="33" t="s">
         <v>128</v>
       </c>
@@ -4207,7 +4229,7 @@
       <c r="AD32" s="16"/>
       <c r="AE32" s="18"/>
     </row>
-    <row r="33" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="2:31" ht="15.75" customHeight="1">
       <c r="B33" s="33" t="s">
         <v>130</v>
       </c>
@@ -4267,7 +4289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="2:31" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>133</v>
       </c>
@@ -4329,7 +4351,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="35" spans="2:31" ht="7.5" customHeight="1">
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4361,7 +4383,7 @@
       <c r="AD35" s="30"/>
       <c r="AE35" s="32"/>
     </row>
-    <row r="36" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" spans="2:31" ht="15.75" customHeight="1">
       <c r="B36" s="12" t="s">
         <v>136</v>
       </c>
@@ -4371,8 +4393,8 @@
       <c r="D36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>59</v>
+      <c r="E36" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>138</v>
@@ -4475,7 +4497,7 @@
       <c r="AB37" s="10"/>
       <c r="AE37" s="50"/>
     </row>
-    <row r="38" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="38" spans="2:31" ht="7.5" customHeight="1">
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4507,7 +4529,7 @@
       <c r="AD38" s="30"/>
       <c r="AE38" s="32"/>
     </row>
-    <row r="39" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="2:31" ht="15.75" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>148</v>
       </c>
@@ -4517,7 +4539,7 @@
       <c r="D39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="20" t="s">
         <v>150</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -4573,7 +4595,7 @@
       </c>
       <c r="AE39" s="18"/>
     </row>
-    <row r="40" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" spans="2:31" ht="15.75" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>158</v>
       </c>
@@ -4583,7 +4605,7 @@
       <c r="D40" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="20" t="s">
         <v>160</v>
       </c>
       <c r="F40" s="14" t="s">
@@ -4641,7 +4663,7 @@
       </c>
       <c r="AE40" s="18"/>
     </row>
-    <row r="41" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" spans="2:31" ht="15.75" customHeight="1">
       <c r="B41" s="12" t="s">
         <v>166</v>
       </c>
@@ -4651,7 +4673,7 @@
       <c r="D41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F41" s="14" t="s">
@@ -4705,7 +4727,7 @@
       </c>
       <c r="AE41" s="18"/>
     </row>
-    <row r="42" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" spans="2:31" ht="15.75" customHeight="1">
       <c r="B42" s="12" t="s">
         <v>172</v>
       </c>
@@ -4715,7 +4737,7 @@
       <c r="D42" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14" t="s">
         <v>118</v>
@@ -4763,7 +4785,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="43" spans="2:31" ht="7.5" customHeight="1">
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4795,7 +4817,7 @@
       <c r="AD43" s="30"/>
       <c r="AE43" s="32"/>
     </row>
-    <row r="44" spans="2:31" ht="225" hidden="1" customHeight="1">
+    <row r="44" spans="2:31" ht="225" customHeight="1">
       <c r="B44" s="12" t="s">
         <v>177</v>
       </c>
@@ -4805,7 +4827,7 @@
       <c r="D44" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="14" t="s">
@@ -4861,7 +4883,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" spans="2:31" ht="15.75" customHeight="1">
       <c r="B45" s="12" t="s">
         <v>185</v>
       </c>
@@ -4925,7 +4947,7 @@
       <c r="AD45" s="16"/>
       <c r="AE45" s="18"/>
     </row>
-    <row r="46" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="2:31" ht="15.75" customHeight="1">
       <c r="B46" s="51" t="s">
         <v>187</v>
       </c>
@@ -4935,8 +4957,8 @@
       <c r="D46" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>59</v>
+      <c r="E46" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F46" s="53" t="s">
         <v>188</v>
@@ -4985,7 +5007,7 @@
       </c>
       <c r="AE46" s="50"/>
     </row>
-    <row r="47" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" spans="2:31" ht="15.75" customHeight="1">
       <c r="B47" s="51" t="s">
         <v>192</v>
       </c>
@@ -5043,7 +5065,7 @@
       <c r="AB47" s="10"/>
       <c r="AE47" s="50"/>
     </row>
-    <row r="48" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" spans="2:31" ht="15.75" customHeight="1">
       <c r="B48" s="12" t="s">
         <v>193</v>
       </c>
@@ -5053,8 +5075,8 @@
       <c r="D48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>59</v>
+      <c r="E48" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F48" s="57" t="s">
         <v>195</v>
@@ -5103,18 +5125,18 @@
       <c r="AD48" s="16"/>
       <c r="AE48" s="18"/>
     </row>
-    <row r="49" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="2:31" ht="15.75" customHeight="1">
       <c r="B49" s="12" t="s">
         <v>199</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>59</v>
+      <c r="E49" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F49" s="58" t="s">
         <v>201</v>
@@ -5163,7 +5185,7 @@
       <c r="AD49" s="16"/>
       <c r="AE49" s="18"/>
     </row>
-    <row r="50" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="50" spans="2:31" ht="7.5" customHeight="1">
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -5195,7 +5217,7 @@
       <c r="AD50" s="30"/>
       <c r="AE50" s="32"/>
     </row>
-    <row r="51" spans="2:31" ht="63" hidden="1" customHeight="1">
+    <row r="51" spans="2:31" ht="63" customHeight="1">
       <c r="B51" s="12" t="s">
         <v>205</v>
       </c>
@@ -5205,8 +5227,8 @@
       <c r="D51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>59</v>
+      <c r="E51" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>207</v>
@@ -5261,7 +5283,7 @@
       </c>
       <c r="AE51" s="18"/>
     </row>
-    <row r="52" spans="2:31" ht="35.25" hidden="1" customHeight="1">
+    <row r="52" spans="2:31" ht="35.25" customHeight="1">
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -5293,7 +5315,7 @@
       <c r="AD52" s="30"/>
       <c r="AE52" s="32"/>
     </row>
-    <row r="53" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" spans="2:31" ht="15.75" customHeight="1">
       <c r="B53" s="12" t="s">
         <v>213</v>
       </c>
@@ -5303,7 +5325,7 @@
       <c r="D53" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="20" t="s">
         <v>215</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -5361,7 +5383,7 @@
       </c>
       <c r="AE53" s="25"/>
     </row>
-    <row r="54" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" spans="2:31" ht="15.75" customHeight="1">
       <c r="B54" s="51" t="s">
         <v>220</v>
       </c>
@@ -5422,7 +5444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" spans="2:31" ht="15.75" customHeight="1">
       <c r="B55" s="12" t="s">
         <v>228</v>
       </c>
@@ -5432,8 +5454,8 @@
       <c r="D55" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="58" t="s">
-        <v>230</v>
+      <c r="E55" s="20" t="s">
+        <v>461</v>
       </c>
       <c r="F55" s="58" t="s">
         <v>216</v>
@@ -5486,7 +5508,7 @@
       </c>
       <c r="AE55" s="18"/>
     </row>
-    <row r="56" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" spans="2:31" ht="15.75" customHeight="1">
       <c r="B56" s="12" t="s">
         <v>236</v>
       </c>
@@ -5496,7 +5518,7 @@
       <c r="D56" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="20" t="s">
         <v>160</v>
       </c>
       <c r="F56" s="53" t="s">
@@ -5550,7 +5572,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" spans="2:31" ht="15.75" customHeight="1">
       <c r="B57" s="12" t="s">
         <v>244</v>
       </c>
@@ -5560,7 +5582,7 @@
       <c r="D57" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F57" s="14" t="s">
@@ -5614,7 +5636,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" spans="2:31" ht="15.75" customHeight="1">
       <c r="B58" s="12" t="s">
         <v>252</v>
       </c>
@@ -5624,7 +5646,7 @@
       <c r="D58" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F58" s="14" t="s">
@@ -5678,7 +5700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" spans="2:31" ht="15.75" customHeight="1">
       <c r="B59" s="12" t="s">
         <v>256</v>
       </c>
@@ -5688,7 +5710,7 @@
       <c r="D59" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="58" t="s">
+      <c r="E59" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F59" s="58" t="s">
@@ -5742,7 +5764,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" spans="2:31" ht="15.75" customHeight="1">
       <c r="B60" s="12" t="s">
         <v>261</v>
       </c>
@@ -5752,15 +5774,15 @@
       <c r="D60" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="58" t="s">
-        <v>263</v>
+      <c r="E60" s="20" t="s">
+        <v>462</v>
       </c>
       <c r="F60" s="58" t="s">
         <v>216</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -5769,7 +5791,7 @@
         <v>34</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N60" s="16" t="s">
         <v>55</v>
@@ -5800,27 +5822,27 @@
       <c r="AD60" s="16"/>
       <c r="AE60" s="18"/>
     </row>
-    <row r="61" spans="2:31" ht="75" hidden="1" customHeight="1">
+    <row r="61" spans="2:31" ht="75" customHeight="1">
       <c r="B61" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>59</v>
+      <c r="E61" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F61" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="G61" s="54" t="s">
+      <c r="H61" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -5829,7 +5851,7 @@
         <v>34</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N61" s="16" t="s">
         <v>55</v>
@@ -5860,25 +5882,25 @@
       <c r="AD61" s="16"/>
       <c r="AE61" s="18"/>
     </row>
-    <row r="62" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" spans="2:31" ht="15.75" customHeight="1">
       <c r="B62" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="58" t="s">
-        <v>274</v>
+      <c r="E62" s="74" t="s">
+        <v>273</v>
       </c>
       <c r="F62" s="58" t="s">
         <v>32</v>
       </c>
       <c r="G62" s="14"/>
-      <c r="H62" s="21" t="s">
-        <v>275</v>
+      <c r="H62" s="73" t="s">
+        <v>274</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -5887,7 +5909,7 @@
         <v>34</v>
       </c>
       <c r="M62" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N62" s="16" t="s">
         <v>55</v>
@@ -5911,7 +5933,7 @@
         <v>47</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X62" s="16"/>
       <c r="Y62" s="22" t="s">
@@ -5922,33 +5944,33 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="22"/>
       <c r="AD62" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE62" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="AE62" s="25" t="s">
+    </row>
+    <row r="63" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B63" s="12" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="63" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="58" t="s">
+      <c r="E63" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="G63" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="G63" s="58" t="s">
+      <c r="H63" s="21" t="s">
         <v>284</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>285</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -5957,7 +5979,7 @@
         <v>34</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N63" s="16" t="s">
         <v>55</v>
@@ -5988,23 +6010,23 @@
       <c r="AB63" s="10"/>
       <c r="AC63" s="22"/>
       <c r="AD63" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE63" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="AE63" s="25" t="s">
+    </row>
+    <row r="64" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B64" s="12" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="64" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B64" s="12" t="s">
+      <c r="C64" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="74" t="s">
         <v>145</v>
       </c>
       <c r="F64" s="58" t="s">
@@ -6012,7 +6034,7 @@
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -6021,7 +6043,7 @@
         <v>34</v>
       </c>
       <c r="M64" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N64" s="16" t="s">
         <v>55</v>
@@ -6052,25 +6074,25 @@
       <c r="AD64" s="16"/>
       <c r="AE64" s="18"/>
     </row>
-    <row r="65" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" spans="2:31" ht="15.75" customHeight="1">
       <c r="B65" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>294</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="58" t="s">
-        <v>295</v>
+      <c r="E65" s="74" t="s">
+        <v>294</v>
       </c>
       <c r="F65" s="58" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -6079,7 +6101,7 @@
         <v>34</v>
       </c>
       <c r="M65" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>87</v>
@@ -6098,7 +6120,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="16"/>
       <c r="V65" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W65" s="16"/>
       <c r="X65" s="16"/>
@@ -6110,31 +6132,31 @@
       <c r="AB65" s="10"/>
       <c r="AC65" s="22"/>
       <c r="AD65" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE65" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="AE65" s="25" t="s">
+    </row>
+    <row r="66" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B66" s="12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>302</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>303</v>
+      <c r="E66" s="74" t="s">
+        <v>302</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>216</v>
       </c>
       <c r="G66" s="14"/>
-      <c r="H66" s="21" t="s">
-        <v>304</v>
+      <c r="H66" s="73" t="s">
+        <v>303</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
@@ -6143,7 +6165,7 @@
         <v>34</v>
       </c>
       <c r="M66" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N66" s="16" t="s">
         <v>55</v>
@@ -6162,7 +6184,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="16"/>
       <c r="V66" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W66" s="16"/>
       <c r="X66" s="16"/>
@@ -6176,34 +6198,34 @@
       <c r="AD66" s="16"/>
       <c r="AE66" s="18"/>
     </row>
-    <row r="67" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" spans="2:31" ht="15.75" customHeight="1">
       <c r="B67" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C67" s="52" t="s">
         <v>307</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>308</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="57" t="s">
-        <v>309</v>
+      <c r="E67" s="72" t="s">
+        <v>308</v>
       </c>
       <c r="F67" s="57" t="s">
         <v>32</v>
       </c>
       <c r="G67" s="53"/>
       <c r="H67" s="62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
       <c r="K67" s="49"/>
       <c r="L67" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="M67" s="49" t="s">
         <v>311</v>
-      </c>
-      <c r="M67" s="49" t="s">
-        <v>312</v>
       </c>
       <c r="N67" s="16" t="s">
         <v>55</v>
@@ -6226,7 +6248,7 @@
       <c r="V67" s="49"/>
       <c r="W67" s="49"/>
       <c r="X67" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y67" s="49"/>
       <c r="Z67" s="49"/>
@@ -6234,23 +6256,23 @@
       <c r="AB67" s="10"/>
       <c r="AC67" s="16"/>
       <c r="AD67" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE67" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="AE67" s="64" t="s">
+    </row>
+    <row r="68" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B68" s="51" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="68" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B68" s="51" t="s">
+      <c r="C68" s="54" t="s">
         <v>316</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>317</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="72" t="s">
         <v>168</v>
       </c>
       <c r="F68" s="57" t="s">
@@ -6258,7 +6280,7 @@
       </c>
       <c r="G68" s="53"/>
       <c r="H68" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
@@ -6267,7 +6289,7 @@
         <v>34</v>
       </c>
       <c r="M68" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N68" s="16" t="s">
         <v>102</v>
@@ -6286,7 +6308,7 @@
       <c r="T68" s="49"/>
       <c r="U68" s="49"/>
       <c r="V68" s="63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W68" s="49"/>
       <c r="X68" s="49"/>
@@ -6296,11 +6318,11 @@
       <c r="AB68" s="10"/>
       <c r="AC68" s="16"/>
       <c r="AD68" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE68" s="50"/>
     </row>
-    <row r="69" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" spans="2:31" ht="15.75" customHeight="1">
       <c r="B69" s="51"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
@@ -6330,25 +6352,25 @@
       <c r="AB69" s="10"/>
       <c r="AE69" s="50"/>
     </row>
-    <row r="70" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" spans="2:31" ht="15.75" customHeight="1">
       <c r="B70" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="58" t="s">
-        <v>324</v>
+      <c r="E70" s="74" t="s">
+        <v>323</v>
       </c>
       <c r="F70" s="58" t="s">
         <v>216</v>
       </c>
       <c r="G70" s="14"/>
-      <c r="H70" s="21" t="s">
-        <v>325</v>
+      <c r="H70" s="73" t="s">
+        <v>324</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
@@ -6357,7 +6379,7 @@
         <v>34</v>
       </c>
       <c r="M70" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N70" s="16" t="s">
         <v>55</v>
@@ -6370,7 +6392,7 @@
         <v>47</v>
       </c>
       <c r="R70" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S70" s="10"/>
       <c r="T70" s="22" t="s">
@@ -6378,11 +6400,11 @@
       </c>
       <c r="U70" s="16"/>
       <c r="V70" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W70" s="22"/>
       <c r="X70" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y70" s="22"/>
       <c r="Z70" s="16"/>
@@ -6390,29 +6412,29 @@
       <c r="AB70" s="10"/>
       <c r="AC70" s="22"/>
       <c r="AD70" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE70" s="25"/>
+    </row>
+    <row r="71" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B71" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="AE70" s="25"/>
-    </row>
-    <row r="71" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B71" s="66" t="s">
-        <v>331</v>
-      </c>
       <c r="C71" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="58" t="s">
-        <v>324</v>
+      <c r="E71" s="20" t="s">
+        <v>323</v>
       </c>
       <c r="F71" s="57" t="s">
         <v>201</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -6421,7 +6443,7 @@
         <v>34</v>
       </c>
       <c r="M71" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N71" s="16" t="s">
         <v>55</v>
@@ -6434,17 +6456,17 @@
         <v>47</v>
       </c>
       <c r="R71" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S71" s="10"/>
       <c r="T71" s="16"/>
       <c r="U71" s="16"/>
       <c r="V71" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W71" s="16"/>
       <c r="X71" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y71" s="16"/>
       <c r="Z71" s="16"/>
@@ -6452,31 +6474,31 @@
       <c r="AB71" s="10"/>
       <c r="AC71" s="16"/>
       <c r="AD71" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE71" s="18"/>
+    </row>
+    <row r="72" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B72" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="AE71" s="18"/>
-    </row>
-    <row r="72" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B72" s="51" t="s">
+      <c r="C72" s="52" t="s">
         <v>336</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>337</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="72" t="s">
+        <v>463</v>
+      </c>
+      <c r="F72" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G72" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="F72" s="57" t="s">
+      <c r="H72" s="65" t="s">
         <v>339</v>
-      </c>
-      <c r="G72" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="H72" s="65" t="s">
-        <v>341</v>
       </c>
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
@@ -6487,7 +6509,7 @@
         <v>34</v>
       </c>
       <c r="M72" s="49" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N72" s="16" t="s">
         <v>55</v>
@@ -6512,49 +6534,49 @@
       </c>
       <c r="W72" s="49"/>
       <c r="X72" s="63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Y72" s="63" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Z72" s="49"/>
       <c r="AA72" s="49"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="16"/>
       <c r="AD72" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE72" s="16"/>
+    </row>
+    <row r="73" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B73" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="AE72" s="16"/>
-    </row>
-    <row r="73" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B73" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="58" t="s">
-        <v>348</v>
+      <c r="E73" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="F73" s="58" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N73" s="67" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="22" t="s">
@@ -6570,7 +6592,7 @@
       <c r="T73" s="16"/>
       <c r="U73" s="16"/>
       <c r="V73" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W73" s="16"/>
       <c r="X73" s="16"/>
@@ -6580,33 +6602,33 @@
       <c r="AB73" s="10"/>
       <c r="AC73" s="16"/>
       <c r="AD73" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE73" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B74" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="AE73" s="25" t="s">
+      <c r="C74" s="52" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B74" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>356</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="57" t="s">
-        <v>338</v>
+      <c r="E74" s="72" t="s">
+        <v>463</v>
       </c>
       <c r="F74" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="G74" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" s="65" t="s">
         <v>357</v>
-      </c>
-      <c r="G74" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="H74" s="65" t="s">
-        <v>359</v>
       </c>
       <c r="I74" s="49"/>
       <c r="J74" s="49"/>
@@ -6615,7 +6637,7 @@
         <v>34</v>
       </c>
       <c r="M74" s="49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N74" s="16" t="s">
         <v>55</v>
@@ -6644,29 +6666,29 @@
       <c r="AB74" s="10"/>
       <c r="AC74" s="16"/>
       <c r="AD74" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE74" s="16"/>
+    </row>
+    <row r="75" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B75" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="52" t="s">
         <v>361</v>
-      </c>
-      <c r="AE74" s="16"/>
-    </row>
-    <row r="75" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B75" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>363</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="20" t="s">
         <v>230</v>
       </c>
       <c r="F75" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G75" s="53"/>
       <c r="H75" s="65" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
@@ -6675,7 +6697,7 @@
         <v>34</v>
       </c>
       <c r="M75" s="49" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N75" s="16" t="s">
         <v>55</v>
@@ -6704,31 +6726,31 @@
       <c r="AB75" s="10"/>
       <c r="AC75" s="16"/>
       <c r="AD75" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE75" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B76" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="AE75" s="22" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B76" s="51" t="s">
-        <v>368</v>
-      </c>
       <c r="C76" s="52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="57" t="s">
-        <v>369</v>
+      <c r="E76" s="72" t="s">
+        <v>367</v>
       </c>
       <c r="F76" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G76" s="53"/>
       <c r="H76" s="65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
@@ -6737,7 +6759,7 @@
         <v>34</v>
       </c>
       <c r="M76" s="49" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N76" s="16" t="s">
         <v>55</v>
@@ -6759,10 +6781,10 @@
       <c r="U76" s="49"/>
       <c r="V76" s="49"/>
       <c r="W76" s="63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="X76" s="63" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Y76" s="49"/>
       <c r="Z76" s="49"/>
@@ -6772,31 +6794,31 @@
         <v>65</v>
       </c>
       <c r="AD76" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE76" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B77" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="AE76" s="22" t="s">
+      <c r="C77" s="13" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" ht="15.75" hidden="1" customHeight="1">
-      <c r="B77" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>376</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="58" t="s">
-        <v>59</v>
+      <c r="E77" s="74" t="s">
+        <v>463</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
@@ -6805,10 +6827,10 @@
         <v>34</v>
       </c>
       <c r="M77" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N77" s="67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O77" s="10"/>
       <c r="P77" s="16" t="s">
@@ -6827,10 +6849,10 @@
       <c r="U77" s="16"/>
       <c r="V77" s="16"/>
       <c r="W77" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Y77" s="16"/>
       <c r="Z77" s="16"/>
@@ -6838,13 +6860,13 @@
       <c r="AB77" s="10"/>
       <c r="AC77" s="16"/>
       <c r="AD77" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AE77" s="18"/>
     </row>
     <row r="78" spans="2:31" ht="15.75" customHeight="1">
       <c r="B78" s="68" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -6875,7 +6897,7 @@
       <c r="AC78" s="16"/>
       <c r="AE78" s="50"/>
     </row>
-    <row r="79" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" spans="2:31" ht="15.75" customHeight="1">
       <c r="B79" s="51"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -6905,16 +6927,16 @@
       <c r="AB79" s="10"/>
       <c r="AE79" s="50"/>
     </row>
-    <row r="80" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" spans="2:31" ht="15.75" customHeight="1">
       <c r="B80" s="33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C80" s="34"/>
       <c r="D80" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F80" s="35" t="s">
         <v>32</v>
@@ -6932,7 +6954,7 @@
         <v>34</v>
       </c>
       <c r="M80" s="36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N80" s="37" t="s">
         <v>87</v>
@@ -6961,19 +6983,19 @@
       <c r="AD80" s="16"/>
       <c r="AE80" s="18"/>
     </row>
-    <row r="81" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" spans="2:31" ht="15.75" customHeight="1">
       <c r="B81" s="33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="36"/>
@@ -6986,7 +7008,7 @@
         <v>34</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N81" s="37" t="s">
         <v>87</v>
@@ -7015,12 +7037,12 @@
       <c r="AD81" s="16"/>
       <c r="AE81" s="18"/>
     </row>
-    <row r="82" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" spans="2:31" ht="15.75" customHeight="1">
       <c r="B82" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>83</v>
@@ -7038,7 +7060,7 @@
         <v>34</v>
       </c>
       <c r="M82" s="37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N82" s="16" t="s">
         <v>87</v>
@@ -7065,19 +7087,19 @@
       <c r="AD82" s="16"/>
       <c r="AE82" s="18"/>
     </row>
-    <row r="83" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" spans="2:31" ht="15.75" customHeight="1">
       <c r="B83" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G83" s="34"/>
       <c r="H83" s="36"/>
@@ -7090,7 +7112,7 @@
         <v>34</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N83" s="37" t="s">
         <v>87</v>
@@ -7117,19 +7139,19 @@
       <c r="AD83" s="16"/>
       <c r="AE83" s="18"/>
     </row>
-    <row r="84" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" spans="2:31" ht="15.75" customHeight="1">
       <c r="B84" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C84" s="34"/>
       <c r="D84" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G84" s="34"/>
       <c r="H84" s="36"/>
@@ -7142,7 +7164,7 @@
         <v>34</v>
       </c>
       <c r="M84" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N84" s="37" t="s">
         <v>87</v>
@@ -7169,21 +7191,21 @@
       <c r="AD84" s="16"/>
       <c r="AE84" s="18"/>
     </row>
-    <row r="85" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" spans="2:31" ht="15.75" customHeight="1">
       <c r="B85" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G85" s="34"/>
       <c r="H85" s="36"/>
@@ -7198,7 +7220,7 @@
         <v>34</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N85" s="16" t="s">
         <v>87</v>
@@ -7225,21 +7247,21 @@
       <c r="AD85" s="16"/>
       <c r="AE85" s="18"/>
     </row>
-    <row r="86" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" spans="2:31" ht="15.75" customHeight="1">
       <c r="B86" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D86" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F86" s="35" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G86" s="34"/>
       <c r="H86" s="36"/>
@@ -7254,7 +7276,7 @@
         <v>34</v>
       </c>
       <c r="M86" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N86" s="16"/>
       <c r="O86" s="10"/>
@@ -7279,9 +7301,9 @@
       <c r="AD86" s="16"/>
       <c r="AE86" s="18"/>
     </row>
-    <row r="87" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" spans="2:31" ht="15.75" customHeight="1">
       <c r="B87" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87" s="34" t="s">
@@ -7291,7 +7313,7 @@
         <v>145</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G87" s="35"/>
       <c r="H87" s="36"/>
@@ -7304,7 +7326,7 @@
         <v>34</v>
       </c>
       <c r="M87" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N87" s="37" t="s">
         <v>87</v>
@@ -7331,12 +7353,12 @@
       <c r="AD87" s="16"/>
       <c r="AE87" s="18"/>
     </row>
-    <row r="88" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" spans="2:31" ht="15.75" customHeight="1">
       <c r="B88" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D88" s="34" t="s">
         <v>83</v>
@@ -7354,7 +7376,7 @@
         <v>34</v>
       </c>
       <c r="M88" s="37" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N88" s="16" t="s">
         <v>55</v>
@@ -7381,25 +7403,25 @@
       <c r="AD88" s="16"/>
       <c r="AE88" s="18"/>
     </row>
-    <row r="89" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" spans="2:31" ht="15.75" customHeight="1">
       <c r="B89" s="33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G89" s="35"/>
       <c r="H89" s="69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
@@ -7410,7 +7432,7 @@
         <v>34</v>
       </c>
       <c r="M89" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N89" s="16" t="s">
         <v>55</v>
@@ -7437,21 +7459,21 @@
       <c r="AD89" s="16"/>
       <c r="AE89" s="18"/>
     </row>
-    <row r="90" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" spans="2:31" ht="15.75" customHeight="1">
       <c r="B90" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D90" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G90" s="35"/>
       <c r="H90" s="36"/>
@@ -7466,7 +7488,7 @@
         <v>34</v>
       </c>
       <c r="M90" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N90" s="16"/>
       <c r="O90" s="10"/>
@@ -7491,12 +7513,12 @@
       <c r="AD90" s="16"/>
       <c r="AE90" s="18"/>
     </row>
-    <row r="91" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" spans="2:31" ht="15.75" customHeight="1">
       <c r="B91" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D91" s="34" t="s">
         <v>83</v>
@@ -7514,7 +7536,7 @@
         <v>34</v>
       </c>
       <c r="M91" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N91" s="16" t="s">
         <v>55</v>
@@ -7541,16 +7563,16 @@
       <c r="AD91" s="16"/>
       <c r="AE91" s="18"/>
     </row>
-    <row r="92" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" spans="2:31" ht="15.75" customHeight="1">
       <c r="B92" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C92" s="34"/>
       <c r="D92" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F92" s="35" t="s">
         <v>32</v>
@@ -7566,7 +7588,7 @@
         <v>34</v>
       </c>
       <c r="M92" s="36" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N92" s="37" t="s">
         <v>102</v>
@@ -7593,12 +7615,12 @@
       <c r="AD92" s="16"/>
       <c r="AE92" s="18"/>
     </row>
-    <row r="93" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" spans="2:31" ht="15.75" customHeight="1">
       <c r="B93" s="44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D93" s="34" t="s">
         <v>83</v>
@@ -7616,7 +7638,7 @@
         <v>34</v>
       </c>
       <c r="M93" s="48" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N93" s="16" t="s">
         <v>55</v>
@@ -7643,18 +7665,18 @@
       <c r="AD93" s="16"/>
       <c r="AE93" s="16"/>
     </row>
-    <row r="94" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" spans="2:31" ht="15.75" customHeight="1">
       <c r="B94" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D94" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F94" s="35" t="s">
         <v>32</v>
@@ -7670,7 +7692,7 @@
         <v>34</v>
       </c>
       <c r="M94" s="48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N94" s="16" t="s">
         <v>55</v>
@@ -7699,18 +7721,18 @@
       <c r="AD94" s="16"/>
       <c r="AE94" s="16"/>
     </row>
-    <row r="95" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" spans="2:31" ht="15.75" customHeight="1">
       <c r="B95" s="44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D95" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F95" s="35" t="s">
         <v>32</v>
@@ -7728,7 +7750,7 @@
         <v>34</v>
       </c>
       <c r="M95" s="48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N95" s="16"/>
       <c r="O95" s="10"/>
@@ -7755,7 +7777,7 @@
       <c r="AD95" s="16"/>
       <c r="AE95" s="16"/>
     </row>
-    <row r="96" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="96" spans="2:31" ht="7.5" customHeight="1">
       <c r="B96" s="26"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -7787,12 +7809,12 @@
       <c r="AD96" s="30"/>
       <c r="AE96" s="32"/>
     </row>
-    <row r="97" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" spans="2:31" ht="15.75" customHeight="1">
       <c r="B97" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D97" s="34" t="s">
         <v>83</v>
@@ -7814,7 +7836,7 @@
         <v>34</v>
       </c>
       <c r="M97" s="37" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N97" s="16" t="s">
         <v>102</v>
@@ -7841,12 +7863,12 @@
       <c r="AD97" s="16"/>
       <c r="AE97" s="18"/>
     </row>
-    <row r="98" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" spans="2:31" ht="15.75" customHeight="1">
       <c r="B98" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D98" s="34" t="s">
         <v>83</v>
@@ -7864,7 +7886,7 @@
         <v>34</v>
       </c>
       <c r="M98" s="37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N98" s="16" t="s">
         <v>102</v>
@@ -7891,9 +7913,9 @@
       <c r="AD98" s="16"/>
       <c r="AE98" s="18"/>
     </row>
-    <row r="99" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" spans="2:31" ht="15.75" customHeight="1">
       <c r="B99" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>229</v>
@@ -7943,25 +7965,25 @@
       <c r="AD99" s="16"/>
       <c r="AE99" s="18"/>
     </row>
-    <row r="100" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" spans="2:31" ht="15.75" customHeight="1">
       <c r="B100" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D100" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F100" s="35" t="s">
         <v>216</v>
       </c>
       <c r="G100" s="35"/>
       <c r="H100" s="36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I100" s="37"/>
       <c r="J100" s="37"/>
@@ -7972,7 +7994,7 @@
         <v>34</v>
       </c>
       <c r="M100" s="37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N100" s="16" t="s">
         <v>102</v>
@@ -8001,19 +8023,19 @@
       <c r="AD100" s="16"/>
       <c r="AE100" s="18"/>
     </row>
-    <row r="101" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" spans="2:31" ht="15.75" customHeight="1">
       <c r="B101" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C101" s="34"/>
       <c r="D101" s="34" t="s">
         <v>83</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G101" s="35"/>
       <c r="H101" s="36"/>
@@ -8026,7 +8048,7 @@
         <v>34</v>
       </c>
       <c r="M101" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N101" s="37" t="s">
         <v>102</v>
@@ -8055,12 +8077,12 @@
       <c r="AD101" s="16"/>
       <c r="AE101" s="18"/>
     </row>
-    <row r="102" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" spans="2:31" ht="15.75" customHeight="1">
       <c r="B102" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D102" s="34" t="s">
         <v>83</v>
@@ -8105,12 +8127,12 @@
       <c r="AD102" s="16"/>
       <c r="AE102" s="18"/>
     </row>
-    <row r="103" spans="2:31" ht="42" hidden="1" customHeight="1">
+    <row r="103" spans="2:31" ht="42" customHeight="1">
       <c r="B103" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D103" s="34" t="s">
         <v>83</v>
@@ -8155,9 +8177,9 @@
       <c r="AD103" s="16"/>
       <c r="AE103" s="18"/>
     </row>
-    <row r="104" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" spans="2:31" ht="15.75" customHeight="1">
       <c r="B104" s="33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C104" s="34"/>
       <c r="D104" s="34" t="s">
@@ -8167,7 +8189,7 @@
         <v>145</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G104" s="35"/>
       <c r="H104" s="36"/>
@@ -8207,9 +8229,9 @@
       <c r="AD104" s="16"/>
       <c r="AE104" s="18"/>
     </row>
-    <row r="105" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" spans="2:31" ht="15.75" customHeight="1">
       <c r="B105" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C105" s="34"/>
       <c r="D105" s="34" t="s">
@@ -8253,9 +8275,9 @@
       <c r="AD105" s="16"/>
       <c r="AE105" s="18"/>
     </row>
-    <row r="106" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" spans="2:31" ht="15.75" customHeight="1">
       <c r="B106" s="33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C106" s="34"/>
       <c r="D106" s="34" t="s">
@@ -8299,9 +8321,9 @@
       <c r="AD106" s="16"/>
       <c r="AE106" s="18"/>
     </row>
-    <row r="107" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" spans="2:31" ht="15.75" customHeight="1">
       <c r="B107" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C107" s="34"/>
       <c r="D107" s="34" t="s">
@@ -8349,9 +8371,9 @@
       <c r="AD107" s="16"/>
       <c r="AE107" s="18"/>
     </row>
-    <row r="108" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" spans="2:31" ht="15.75" customHeight="1">
       <c r="B108" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C108" s="34"/>
       <c r="D108" s="34" t="s">
@@ -8395,9 +8417,9 @@
       <c r="AD108" s="16"/>
       <c r="AE108" s="18"/>
     </row>
-    <row r="109" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" spans="2:31" ht="15.75" customHeight="1">
       <c r="B109" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="34" t="s">
@@ -8445,9 +8467,9 @@
       <c r="AD109" s="16"/>
       <c r="AE109" s="18"/>
     </row>
-    <row r="110" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" spans="2:31" ht="15.75" customHeight="1">
       <c r="B110" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C110" s="34"/>
       <c r="D110" s="34" t="s">
@@ -8495,9 +8517,9 @@
       <c r="AD110" s="16"/>
       <c r="AE110" s="18"/>
     </row>
-    <row r="111" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" spans="2:31" ht="15.75" customHeight="1">
       <c r="B111" s="33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C111" s="34"/>
       <c r="D111" s="34" t="s">
@@ -8543,9 +8565,9 @@
       <c r="AD111" s="16"/>
       <c r="AE111" s="18"/>
     </row>
-    <row r="112" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" spans="2:31" ht="15.75" customHeight="1">
       <c r="B112" s="33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C112" s="34"/>
       <c r="D112" s="34" t="s">
@@ -8591,9 +8613,9 @@
       <c r="AD112" s="16"/>
       <c r="AE112" s="18"/>
     </row>
-    <row r="113" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" spans="2:31" ht="15.75" customHeight="1">
       <c r="B113" s="44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="34" t="s">
@@ -8635,9 +8657,9 @@
       <c r="AB113" s="10"/>
       <c r="AE113" s="50"/>
     </row>
-    <row r="114" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" spans="2:31" ht="15.75" customHeight="1">
       <c r="B114" s="44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C114" s="45"/>
       <c r="D114" s="34" t="s">
@@ -8683,9 +8705,9 @@
       <c r="AB114" s="10"/>
       <c r="AE114" s="50"/>
     </row>
-    <row r="115" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" spans="2:31" ht="15.75" customHeight="1">
       <c r="B115" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C115" s="34"/>
       <c r="D115" s="34" t="s">
@@ -8733,9 +8755,9 @@
       <c r="AD115" s="16"/>
       <c r="AE115" s="18"/>
     </row>
-    <row r="116" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" spans="2:31" ht="15.75" customHeight="1">
       <c r="B116" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C116" s="34"/>
       <c r="D116" s="34" t="s">
@@ -8779,9 +8801,9 @@
       <c r="AD116" s="16"/>
       <c r="AE116" s="18"/>
     </row>
-    <row r="117" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" spans="2:31" ht="15.75" customHeight="1">
       <c r="B117" s="33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C117" s="34"/>
       <c r="D117" s="34" t="s">
@@ -8825,9 +8847,9 @@
       <c r="AD117" s="16"/>
       <c r="AE117" s="18"/>
     </row>
-    <row r="118" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" spans="2:31" ht="15.75" customHeight="1">
       <c r="B118" s="44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C118" s="45"/>
       <c r="D118" s="34" t="s">
@@ -8869,9 +8891,9 @@
       <c r="AB118" s="10"/>
       <c r="AE118" s="50"/>
     </row>
-    <row r="119" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" spans="2:31" ht="15.75" customHeight="1">
       <c r="B119" s="44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C119" s="45"/>
       <c r="D119" s="34" t="s">
@@ -8913,7 +8935,7 @@
       <c r="AB119" s="10"/>
       <c r="AE119" s="50"/>
     </row>
-    <row r="120" spans="2:31" ht="7.5" hidden="1" customHeight="1">
+    <row r="120" spans="2:31" ht="7.5" customHeight="1">
       <c r="B120" s="26"/>
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
@@ -8945,12 +8967,13 @@
       <c r="AD120" s="30"/>
       <c r="AE120" s="32"/>
     </row>
-    <row r="121" spans="2:31" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" spans="2:31" ht="15.75" customHeight="1">
       <c r="B121" s="70" t="s">
         <v>65</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
+      <c r="E121"/>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="2:31" ht="15.75" customHeight="1">
@@ -13354,118 +13377,7 @@
       <c r="H1001" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:AA121">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="(ietf-network-topology)"/>
-        <filter val="bbf-network-map"/>
-        <filter val="example-ietf-isis-topology"/>
-        <filter val="ietf-ac-ntw"/>
-        <filter val="ietf-actn-vn"/>
-        <filter val="ietf-bandwidth-availability-topology"/>
-        <filter val="ietf-bier-oam"/>
-        <filter val="ietf-coms-core"/>
-        <filter val="ietf-connectionless-oam"/>
-        <filter val="ietf-dc-fabric-topology"/>
-        <filter val="ietf-dc-fabric-topology-state"/>
-        <filter val="ietf-dc-fabric-types"/>
-        <filter val="ietf-detnet-topology"/>
-        <filter val="ietf-dots-telemetry"/>
-        <filter val="ietf-energy-saving-mgt"/>
-        <filter val="ietf-eth-service-oam"/>
-        <filter val="ietf-eth-te-topology"/>
-        <filter val="ietf-eth-tran-service"/>
-        <filter val="ietf-fabric-capable-device"/>
-        <filter val="ietf-fabric-endpoint"/>
-        <filter val="ietf-fabric-service"/>
-        <filter val="ietf-fabric-service-types"/>
-        <filter val="ietf-fabric-topology"/>
-        <filter val="ietf-fabric-topology-state"/>
-        <filter val="ietf-fabric-types"/>
-        <filter val="ietf-flex-grid-topology"/>
-        <filter val="ietf-flexi-grid-ted"/>
-        <filter val="ietf-flexi-grid-topology"/>
-        <filter val="ietf-hw-inventory-ref-topo"/>
-        <filter val="ietf-i2rs-service-topology"/>
-        <filter val="ietf-incident"/>
-        <filter val="ietf-isis-topology"/>
-        <filter val="ietf-l2-topology"/>
-        <filter val="ietf-l2-topology-state"/>
-        <filter val="ietf-l3-isis-topology"/>
-        <filter val="ietf-l3-ospf-topology"/>
-        <filter val="ietf-l3-te-topology"/>
-        <filter val="ietf-l3-te-topology-state"/>
-        <filter val="ietf-l3-unicast-igp-topology"/>
-        <filter val="ietf-l3-unicast-topology"/>
-        <filter val="ietf-l3-unicast-topology-state"/>
-        <filter val="ietf-layer1topology"/>
-        <filter val="ietf-microwave-topology"/>
-        <filter val="ietf-mpls-tp-topology"/>
-        <filter val="ietf-network"/>
-        <filter val="ietf-network-inventory-topology"/>
-        <filter val="ietf-network-slice-connectivity"/>
-        <filter val="ietf-network-slice-mapping"/>
-        <filter val="ietf-network-slice-service"/>
-        <filter val="ietf-network-state"/>
-        <filter val="ietf-network-topology"/>
-        <filter val="ietf-network-topology-state"/>
-        <filter val="ietf-network-vpn-pm"/>
-        <filter val="ietf-network-vpn-svc-pm"/>
-        <filter val="ietf-nrp"/>
-        <filter val="ietf-nrp-device"/>
-        <filter val="ietf-nrp-policy"/>
-        <filter val="ietf-ns-topo"/>
-        <filter val="ietf-odu-topology"/>
-        <filter val="ietf-optical-impairment-topology"/>
-        <filter val="ietf-ospf-topology"/>
-        <filter val="ietf-otn-slice"/>
-        <filter val="ietf-otn-slice-mpi"/>
-        <filter val="ietf-otn-topology"/>
-        <filter val="ietf-sap-ntw"/>
-        <filter val="ietf-sfc-oam"/>
-        <filter val="ietf-slice-policy"/>
-        <filter val="ietf-sr-mpls-topology"/>
-        <filter val="ietf-sr-mpls-topology-state"/>
-        <filter val="ietf-sr-topology"/>
-        <filter val="ietf-sr-topology-state"/>
-        <filter val="ietf-srv6-topology"/>
-        <filter val="ietf-te"/>
-        <filter val="ietf-te-detnet-topology"/>
-        <filter val="ietf-te-mpls-topology"/>
-        <filter val="ietf-te-service-mapping"/>
-        <filter val="ietf-te-service-mapping-types"/>
-        <filter val="ietf-te-topology"/>
-        <filter val="ietf-te-topology-fgnm-ext"/>
-        <filter val="ietf-te-topology-packet"/>
-        <filter val="ietf-te-topology-packet-state"/>
-        <filter val="ietf-te-topology-psc"/>
-        <filter val="ietf-te-topology-sf"/>
-        <filter val="ietf-te-topology-sf-state"/>
-        <filter val="ietf-te-topology-state"/>
-        <filter val="ietf-te-types"/>
-        <filter val="ietf-topology-filter"/>
-        <filter val="ietf-tp-interface-reference-topology"/>
-        <filter val="ietf-trans-client-service"/>
-        <filter val="ietf-transport-network-slice"/>
-        <filter val="ietf-ucpe-lt-virtual-link-id"/>
-        <filter val="ietf-ucpe-ni-properties"/>
-        <filter val="ietf-ucpe-node-type"/>
-        <filter val="ietf-uni-topology"/>
-        <filter val="ietf-vn"/>
-        <filter val="ietf-vpn-svc-pm"/>
-        <filter val="ietf-vtn-ntw"/>
-        <filter val="ietf-wson-impairment-topology"/>
-        <filter val="ietf-wson-topology"/>
-        <filter val="isis-topology"/>
-        <filter val="l3-unicast-igp-topology"/>
-        <filter val="NOT DONE CATEGORIZATION FROM HERE BELOW_x000a_MOVE ABOVE THIS LINE WHEN FINISH CATEGORIZATION"/>
-        <filter val="ospf-topology"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:AA121"/>
   <mergeCells count="2">
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="T2:AA2"/>
@@ -13479,6 +13391,6 @@
     <hyperlink ref="H67" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>